--- a/ПКМ/resdata PKM Temp=-15, Volume=10x15x4.xlsx
+++ b/ПКМ/resdata PKM Temp=-15, Volume=10x15x4.xlsx
@@ -527,7 +527,7 @@
         <v>945.3090876972303</v>
       </c>
       <c r="E3" t="n">
-        <v>472.0822021243636</v>
+        <v>472.0059302480203</v>
       </c>
       <c r="F3" t="n">
         <v>0.7803</v>
@@ -561,7 +561,7 @@
         <v>1531.123730073688</v>
       </c>
       <c r="E4" t="n">
-        <v>6.86528272274389</v>
+        <v>6.865286165366731</v>
       </c>
       <c r="F4" t="n">
         <v>0.710320591016015</v>
@@ -586,31 +586,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>534.8186430895696</v>
+        <v>534.8193292067947</v>
       </c>
       <c r="C5" t="n">
         <v>0.1</v>
       </c>
       <c r="D5" t="n">
-        <v>953.7062152953041</v>
+        <v>953.7075568929747</v>
       </c>
       <c r="E5" t="n">
-        <v>478.9474848471075</v>
+        <v>478.8712164133871</v>
       </c>
       <c r="F5" t="n">
-        <v>0.7792730201320994</v>
+        <v>0.7792728561097537</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1220309176579589</v>
+        <v>0.1220306510833067</v>
       </c>
       <c r="H5" t="n">
-        <v>0.03098696349390936</v>
+        <v>0.03098710515377774</v>
       </c>
       <c r="I5" t="n">
-        <v>0.06117765689311862</v>
+        <v>0.06117794080857088</v>
       </c>
       <c r="J5" t="n">
-        <v>0.006531441822913685</v>
+        <v>0.006531446844591045</v>
       </c>
     </row>
     <row r="6">
@@ -620,31 +620,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>462.6986496826424</v>
+        <v>462.696901982306</v>
       </c>
       <c r="C6" t="n">
         <v>0.1</v>
       </c>
       <c r="D6" t="n">
-        <v>871.3305252320163</v>
+        <v>871.329081973686</v>
       </c>
       <c r="E6" t="n">
-        <v>478.9474848471075</v>
+        <v>478.8712164133871</v>
       </c>
       <c r="F6" t="n">
-        <v>0.7792730201320994</v>
+        <v>0.7792728561097537</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1220309176579589</v>
+        <v>0.1220306510833067</v>
       </c>
       <c r="H6" t="n">
-        <v>0.03098696349390936</v>
+        <v>0.03098710515377774</v>
       </c>
       <c r="I6" t="n">
-        <v>0.06117765689311862</v>
+        <v>0.06117794080857088</v>
       </c>
       <c r="J6" t="n">
-        <v>0.006531441822913685</v>
+        <v>0.006531446844591045</v>
       </c>
     </row>
     <row r="7">
@@ -654,31 +654,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>298.007923196115</v>
+        <v>297.9993561485579</v>
       </c>
       <c r="C7" t="n">
         <v>0.1</v>
       </c>
       <c r="D7" t="n">
-        <v>688.3757705226553</v>
+        <v>688.3669400874425</v>
       </c>
       <c r="E7" t="n">
-        <v>478.9474848471075</v>
+        <v>478.8712164133871</v>
       </c>
       <c r="F7" t="n">
-        <v>0.7792730201320994</v>
+        <v>0.7792728561097537</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1220309176579589</v>
+        <v>0.1220306510833067</v>
       </c>
       <c r="H7" t="n">
-        <v>0.03098696349390936</v>
+        <v>0.03098710515377774</v>
       </c>
       <c r="I7" t="n">
-        <v>0.06117765689311862</v>
+        <v>0.06117794080857088</v>
       </c>
       <c r="J7" t="n">
-        <v>0.006531441822913685</v>
+        <v>0.006531446844591045</v>
       </c>
     </row>
     <row r="8">
@@ -688,31 +688,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>231.423088353648</v>
+        <v>231.5049407706309</v>
       </c>
       <c r="C8" t="n">
         <v>0.1</v>
       </c>
       <c r="D8" t="n">
-        <v>616.3536529987052</v>
+        <v>616.4420585632053</v>
       </c>
       <c r="E8" t="n">
-        <v>478.9474848471075</v>
+        <v>478.8712164133871</v>
       </c>
       <c r="F8" t="n">
-        <v>0.7792730201320994</v>
+        <v>0.7792728561097537</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1220309176579589</v>
+        <v>0.1220306510833067</v>
       </c>
       <c r="H8" t="n">
-        <v>0.03098696349390936</v>
+        <v>0.03098710515377774</v>
       </c>
       <c r="I8" t="n">
-        <v>0.06117765689311862</v>
+        <v>0.06117794080857088</v>
       </c>
       <c r="J8" t="n">
-        <v>0.006531441822913685</v>
+        <v>0.006531446844591045</v>
       </c>
     </row>
     <row r="9">
@@ -722,31 +722,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>230.4999956736836</v>
+        <v>230.5819825960301</v>
       </c>
       <c r="C9" t="n">
         <v>0.1</v>
       </c>
       <c r="D9" t="n">
-        <v>615.3623086882191</v>
+        <v>615.4508420589004</v>
       </c>
       <c r="E9" t="n">
-        <v>478.9474848471075</v>
+        <v>478.8712164133871</v>
       </c>
       <c r="F9" t="n">
-        <v>0.7792730201320994</v>
+        <v>0.7792728561097537</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1220309176579589</v>
+        <v>0.1220306510833067</v>
       </c>
       <c r="H9" t="n">
-        <v>0.03098696349390936</v>
+        <v>0.03098710515377774</v>
       </c>
       <c r="I9" t="n">
-        <v>0.06117765689311862</v>
+        <v>0.06117794080857088</v>
       </c>
       <c r="J9" t="n">
-        <v>0.006531441822913685</v>
+        <v>0.006531446844591045</v>
       </c>
     </row>
     <row r="10">
@@ -756,31 +756,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>170.9284789223814</v>
+        <v>171.0938390460138</v>
       </c>
       <c r="C10" t="n">
         <v>0.1</v>
       </c>
       <c r="D10" t="n">
-        <v>551.7581920815838</v>
+        <v>551.9342744697732</v>
       </c>
       <c r="E10" t="n">
-        <v>478.9474848471075</v>
+        <v>478.8712164133871</v>
       </c>
       <c r="F10" t="n">
-        <v>0.7792730201320994</v>
+        <v>0.7792728561097537</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1220309176579589</v>
+        <v>0.1220306510833067</v>
       </c>
       <c r="H10" t="n">
-        <v>0.03098696349390936</v>
+        <v>0.03098710515377774</v>
       </c>
       <c r="I10" t="n">
-        <v>0.06117765689311862</v>
+        <v>0.06117794080857088</v>
       </c>
       <c r="J10" t="n">
-        <v>0.006531441822913685</v>
+        <v>0.006531446844591045</v>
       </c>
     </row>
     <row r="11">
@@ -790,31 +790,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>106.2735593414944</v>
+        <v>106.3790331505207</v>
       </c>
       <c r="C11" t="n">
         <v>0.1</v>
       </c>
       <c r="D11" t="n">
-        <v>483.4467523005673</v>
+        <v>483.5581517012219</v>
       </c>
       <c r="E11" t="n">
-        <v>478.9474848471075</v>
+        <v>478.8712164133871</v>
       </c>
       <c r="F11" t="n">
-        <v>0.7792730201320994</v>
+        <v>0.7792728561097537</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1220309176579589</v>
+        <v>0.1220306510833067</v>
       </c>
       <c r="H11" t="n">
-        <v>0.03098696349390936</v>
+        <v>0.03098710515377774</v>
       </c>
       <c r="I11" t="n">
-        <v>0.06117765689311862</v>
+        <v>0.06117794080857088</v>
       </c>
       <c r="J11" t="n">
-        <v>0.006531441822913685</v>
+        <v>0.006531446844591045</v>
       </c>
     </row>
     <row r="12">
@@ -833,7 +833,7 @@
         <v>288.39</v>
       </c>
       <c r="E12" t="n">
-        <v>6.507663577067233</v>
+        <v>6.507666840360557</v>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
@@ -857,7 +857,7 @@
         <v>881.5</v>
       </c>
       <c r="E13" t="n">
-        <v>0.3576191456766616</v>
+        <v>0.3576193250061794</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
@@ -962,7 +962,7 @@
         <v>3687.984095444761</v>
       </c>
       <c r="E2" t="n">
-        <v>5.986956470335925</v>
+        <v>5.98695825111365</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -1005,7 +1005,7 @@
         <v>3030.242194144161</v>
       </c>
       <c r="E3" t="n">
-        <v>5.986956470335925</v>
+        <v>5.98695825111365</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -1048,7 +1048,7 @@
         <v>2555.053440566289</v>
       </c>
       <c r="E4" t="n">
-        <v>5.986956470335925</v>
+        <v>5.98695825111365</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -1091,7 +1091,7 @@
         <v>791.1357141934237</v>
       </c>
       <c r="E5" t="n">
-        <v>5.986956470335925</v>
+        <v>5.98695825111365</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -1134,7 +1134,7 @@
         <v>1348.041621038311</v>
       </c>
       <c r="E6" t="n">
-        <v>2.381347273307606</v>
+        <v>2.381347981622457</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -1149,13 +1149,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.0509488958594417</v>
+        <v>0.05094889585944186</v>
       </c>
       <c r="K6" t="n">
         <v>0.0976743545348964</v>
       </c>
       <c r="L6" t="n">
-        <v>0.6806996788173058</v>
+        <v>0.6806996788173056</v>
       </c>
       <c r="M6" t="n">
         <v>0.002008604154522552</v>
@@ -1564,16 +1564,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7339841276070145</v>
+        <v>0.7339967380985993</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7728364818806016</v>
+        <v>0.7728494376898755</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9497275876792918</v>
+        <v>0.9497279836194088</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7029029613144466</v>
+        <v>0.7028914895136117</v>
       </c>
     </row>
     <row r="3">
@@ -1633,7 +1633,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>49.83179369605038</v>
+        <v>49.82797889710262</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
@@ -1646,12 +1646,12 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>33.77915066129216</v>
+        <v>33.77683438232894</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="n">
-        <v>0.8493824243384723</v>
+        <v>0.8493824520991574</v>
       </c>
     </row>
     <row r="9">
@@ -1661,12 +1661,12 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>11.74055604101244</v>
+        <v>11.73973679308238</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="n">
-        <v>0.8287742521874714</v>
+        <v>0.828777909325972</v>
       </c>
     </row>
     <row r="10">
@@ -1676,12 +1676,12 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3.932827358122353</v>
+        <v>3.932467347376221</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="n">
-        <v>0.8148141792596194</v>
+        <v>0.8148136394857654</v>
       </c>
     </row>
     <row r="11">
@@ -1691,12 +1691,12 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.379259635623426</v>
+        <v>0.3789403743150957</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="n">
-        <v>0.19174116618446</v>
+        <v>0.1916534200214997</v>
       </c>
     </row>
     <row r="12">
@@ -1706,13 +1706,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.0745513283093661</v>
+        <v>0.07453099472932066</v>
       </c>
       <c r="C12" t="n">
-        <v>0.08337513386729287</v>
+        <v>0.08335249076548201</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8941674196053286</v>
+        <v>0.8941663775713525</v>
       </c>
       <c r="E12" t="n">
         <v>0.07642926562499497</v>
@@ -1787,10 +1787,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>40822.05167549041</v>
+        <v>40822.91647673791</v>
       </c>
       <c r="C2" t="n">
-        <v>41234.3956318085</v>
+        <v>41235.26916842214</v>
       </c>
       <c r="D2" t="n">
         <v>0.99</v>
@@ -1803,10 +1803,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>89609.41987603348</v>
+        <v>89608.52935286899</v>
       </c>
       <c r="C3" t="n">
-        <v>90514.56553134696</v>
+        <v>90513.66601299899</v>
       </c>
       <c r="D3" t="n">
         <v>0.99</v>
@@ -1819,10 +1819,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>38430.30489714677</v>
+        <v>38429.88194268809</v>
       </c>
       <c r="C4" t="n">
-        <v>38818.48979509775</v>
+        <v>38818.06256837181</v>
       </c>
       <c r="D4" t="n">
         <v>0.99</v>
@@ -1835,10 +1835,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>510.743443074378</v>
+        <v>510.7431485603742</v>
       </c>
       <c r="C5" t="n">
-        <v>515.902467751897</v>
+        <v>515.9021702630042</v>
       </c>
       <c r="D5" t="n">
         <v>0.99</v>
@@ -1851,10 +1851,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>32607.71668834703</v>
+        <v>32608.06111839587</v>
       </c>
       <c r="C6" t="n">
-        <v>32937.0875639869</v>
+        <v>32937.43547312715</v>
       </c>
       <c r="D6" t="n">
         <v>0.99</v>
@@ -1867,10 +1867,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>36888.40369114244</v>
+        <v>36891.4510344763</v>
       </c>
       <c r="C7" t="n">
-        <v>37261.01382943681</v>
+        <v>37264.09195401646</v>
       </c>
       <c r="D7" t="n">
         <v>0.99</v>
@@ -1883,7 +1883,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>40.82253717475463</v>
+        <v>40.81833359155148</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="n">
@@ -1897,7 +1897,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>105.9150759478298</v>
+        <v>105.9189816493301</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="n">
@@ -1911,7 +1911,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9.453658914087123</v>
+        <v>9.453956795789978</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="n">
@@ -2257,16 +2257,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>509.1757602348711</v>
+        <v>509.1793509670586</v>
       </c>
       <c r="C3" t="n">
-        <v>7.106984454290512</v>
+        <v>7.10632766056856</v>
       </c>
       <c r="D3" t="n">
-        <v>3432.391641656146</v>
+        <v>3432.409273395542</v>
       </c>
       <c r="E3" t="n">
-        <v>58.65168412408722</v>
+        <v>58.64835955099399</v>
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
@@ -2278,16 +2278,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>290.1322013310569</v>
+        <v>290.1245175530996</v>
       </c>
       <c r="C4" t="n">
-        <v>7.456120179861302</v>
+        <v>7.455286028106524</v>
       </c>
       <c r="D4" t="n">
-        <v>2766.500291131921</v>
+        <v>2766.511861965945</v>
       </c>
       <c r="E4" t="n">
-        <v>58.65168412408722</v>
+        <v>58.64835955099399</v>
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
@@ -2299,16 +2299,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>289.550041213757</v>
+        <v>289.5487450059946</v>
       </c>
       <c r="C5" t="n">
-        <v>7.456120179861302</v>
+        <v>7.455286028106524</v>
       </c>
       <c r="D5" t="n">
-        <v>1287.55017296282</v>
+        <v>1287.543767319914</v>
       </c>
       <c r="E5" t="n">
-        <v>58.65168412408722</v>
+        <v>58.64835955099399</v>
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
@@ -2320,16 +2320,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>165.9814419793508</v>
+        <v>166.1684279072642</v>
       </c>
       <c r="C6" t="n">
-        <v>7.456120179861302</v>
+        <v>7.455286028106524</v>
       </c>
       <c r="D6" t="n">
-        <v>705.3368769130429</v>
+        <v>706.1459682164215</v>
       </c>
       <c r="E6" t="n">
-        <v>58.65168412408722</v>
+        <v>58.64835955099399</v>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
@@ -2341,16 +2341,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>160.1021347630311</v>
+        <v>160.2856510572361</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6198422717313873</v>
+        <v>0.6227392710733644</v>
       </c>
       <c r="D7" t="n">
-        <v>675.9172083073023</v>
+        <v>676.7146105553578</v>
       </c>
       <c r="E7" t="n">
-        <v>58.65168412408722</v>
+        <v>58.64835955099399</v>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
@@ -2362,16 +2362,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>172.4364742907342</v>
+        <v>172.6338836467605</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6153445744975928</v>
+        <v>0.6162679216898653</v>
       </c>
       <c r="D8" t="n">
-        <v>2787.709214691926</v>
+        <v>2787.957886353767</v>
       </c>
       <c r="E8" t="n">
-        <v>15.58452953890443</v>
+        <v>15.55874470825737</v>
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
@@ -2383,16 +2383,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>160.1021346363479</v>
+        <v>160.2856509301793</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6198422717313873</v>
+        <v>0.6227392710733644</v>
       </c>
       <c r="D9" t="n">
-        <v>2757.553674476286</v>
+        <v>2757.755224602595</v>
       </c>
       <c r="E9" t="n">
-        <v>15.58452953890443</v>
+        <v>15.55874470825737</v>
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
@@ -2404,16 +2404,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>160.1021347630311</v>
+        <v>160.2856510572361</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6198422717313873</v>
+        <v>0.6227392710733644</v>
       </c>
       <c r="D10" t="n">
-        <v>706.661992041116</v>
+        <v>707.2533526377066</v>
       </c>
       <c r="E10" t="n">
-        <v>74.23621366299164</v>
+        <v>74.20710425925137</v>
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
@@ -2425,16 +2425,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>160.1021347630311</v>
+        <v>160.2856510572361</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6198422717313873</v>
+        <v>0.6227392710733644</v>
       </c>
       <c r="D11" t="n">
-        <v>706.661992041116</v>
+        <v>707.2533526377066</v>
       </c>
       <c r="E11" t="n">
-        <v>74.23621366299164</v>
+        <v>74.20773081588645</v>
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
@@ -2446,16 +2446,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>64.44433249047682</v>
+        <v>64.46202141024838</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6198422717313873</v>
+        <v>0.6227392710733644</v>
       </c>
       <c r="D12" t="n">
-        <v>270.3464157409767</v>
+        <v>270.4204569307274</v>
       </c>
       <c r="E12" t="n">
-        <v>74.23621366299164</v>
+        <v>74.20710425925137</v>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
@@ -2467,16 +2467,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>64.44640743943904</v>
+        <v>64.4625258022844</v>
       </c>
       <c r="C13" t="n">
         <v>0.6964</v>
       </c>
       <c r="D13" t="n">
-        <v>270.3551009262248</v>
+        <v>270.4225681861117</v>
       </c>
       <c r="E13" t="n">
-        <v>74.23863781821163</v>
+        <v>74.20819435646659</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
@@ -2488,16 +2488,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>64.138221210616</v>
+        <v>64.15564238369194</v>
       </c>
       <c r="C14" t="n">
         <v>0.6964</v>
       </c>
       <c r="D14" t="n">
-        <v>269.0651389751598</v>
+        <v>269.1380567645461</v>
       </c>
       <c r="E14" t="n">
-        <v>68.19061023034826</v>
+        <v>68.16034036341699</v>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
@@ -2509,16 +2509,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>102.2733713978141</v>
+        <v>102.2829780941301</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1099272580318409</v>
+        <v>0.1099644298020333</v>
       </c>
       <c r="D15" t="n">
-        <v>428.7593358559141</v>
+        <v>428.7998879767144</v>
       </c>
       <c r="E15" t="n">
-        <v>63.73375291761746</v>
+        <v>63.7310622623249</v>
       </c>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
@@ -2530,16 +2530,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>67.15972545061754</v>
+        <v>67.16123093750593</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1099275587514636</v>
+        <v>0.1099648108524114</v>
       </c>
       <c r="D16" t="n">
-        <v>281.2309985790278</v>
+        <v>281.2373349202838</v>
       </c>
       <c r="E16" t="n">
-        <v>63.73539946015812</v>
+        <v>63.73275262776008</v>
       </c>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
@@ -2560,7 +2560,7 @@
         <v>192.602</v>
       </c>
       <c r="E17" t="n">
-        <v>664.8607769919959</v>
+        <v>664.8629065445498</v>
       </c>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
@@ -2581,7 +2581,7 @@
         <v>192.602</v>
       </c>
       <c r="E18" t="n">
-        <v>83.75311955556252</v>
+        <v>83.75338781724349</v>
       </c>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr"/>
@@ -2593,16 +2593,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>84.44534457982186</v>
+        <v>84.45032920962005</v>
       </c>
       <c r="C19" t="n">
         <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>353.5726577557141</v>
+        <v>353.5935284006792</v>
       </c>
       <c r="E19" t="n">
-        <v>83.75311955556252</v>
+        <v>83.75338781724349</v>
       </c>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
@@ -2614,16 +2614,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>116.4125777139089</v>
+        <v>116.4101099153467</v>
       </c>
       <c r="C20" t="n">
-        <v>0.1771172890157494</v>
+        <v>0.1771031119017243</v>
       </c>
       <c r="D20" t="n">
-        <v>2687.849671015333</v>
+        <v>2687.929979261559</v>
       </c>
       <c r="E20" t="n">
-        <v>15.64855849403173</v>
+        <v>15.63660377200332</v>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
@@ -2635,16 +2635,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>114.8327014221071</v>
+        <v>114.8302492490698</v>
       </c>
       <c r="C21" t="n">
-        <v>0.1682614245649619</v>
+        <v>0.1682479563066381</v>
       </c>
       <c r="D21" t="n">
-        <v>481.8840778787252</v>
+        <v>481.873682472056</v>
       </c>
       <c r="E21" t="n">
-        <v>15.64855849403173</v>
+        <v>15.63660377200332</v>
       </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
@@ -2656,16 +2656,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>99.16432771081357</v>
+        <v>99.17324124856547</v>
       </c>
       <c r="C22" t="n">
         <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>415.2010401251764</v>
+        <v>415.2383611077437</v>
       </c>
       <c r="E22" t="n">
-        <v>664.8607769919959</v>
+        <v>664.8629065445498</v>
       </c>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr"/>
@@ -2686,7 +2686,7 @@
         <v>466.60274855267</v>
       </c>
       <c r="E23" t="n">
-        <v>664.8607769919959</v>
+        <v>664.8629065445498</v>
       </c>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
@@ -2698,7 +2698,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>61.24394131098546</v>
+        <v>61.24456922935556</v>
       </c>
       <c r="C24" t="n">
         <v>1</v>
@@ -2707,7 +2707,7 @@
         <v>202.3831279625776</v>
       </c>
       <c r="E24" t="n">
-        <v>664.8607769919959</v>
+        <v>664.8629065445498</v>
       </c>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
@@ -2719,16 +2719,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>103.7373077103027</v>
+        <v>103.7470003863144</v>
       </c>
       <c r="C25" t="n">
-        <v>0.1157129031914115</v>
+        <v>0.1157520313705614</v>
       </c>
       <c r="D25" t="n">
-        <v>2628.947374956477</v>
+        <v>2629.083631410349</v>
       </c>
       <c r="E25" t="n">
-        <v>48.08528685462779</v>
+        <v>48.09459115614958</v>
       </c>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
@@ -2740,19 +2740,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>506.4620785817017</v>
+        <v>506.4668861829005</v>
       </c>
       <c r="C26" t="n">
-        <v>6.533896374081441</v>
+        <v>6.533361940010685</v>
       </c>
       <c r="D26" t="n">
-        <v>3432.391641656146</v>
+        <v>3432.409273395542</v>
       </c>
       <c r="E26" t="n">
-        <v>52.60461107486326</v>
+        <v>52.60006562292351</v>
       </c>
       <c r="F26" t="n">
-        <v>6.85713260621669</v>
+        <v>6.857191097592072</v>
       </c>
       <c r="G26" t="n">
         <v>100</v>
@@ -2765,19 +2765,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>196.2238182600283</v>
+        <v>196.2040243630003</v>
       </c>
       <c r="C27" t="n">
-        <v>0.4570185228972809</v>
+        <v>0.4568542062065439</v>
       </c>
       <c r="D27" t="n">
-        <v>2850.010381648856</v>
+        <v>2849.97688473291</v>
       </c>
       <c r="E27" t="n">
-        <v>52.60461107486326</v>
+        <v>52.60006562292351</v>
       </c>
       <c r="F27" t="n">
-        <v>7.089058050569854</v>
+        <v>7.089148456549387</v>
       </c>
       <c r="G27" t="n">
         <v>100</v>
@@ -2790,19 +2790,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>169.7263985250238</v>
+        <v>169.8234469438137</v>
       </c>
       <c r="C28" t="n">
-        <v>0.5261389427441765</v>
+        <v>0.5257460937863072</v>
       </c>
       <c r="D28" t="n">
-        <v>2787.709214691926</v>
+        <v>2787.957886353767</v>
       </c>
       <c r="E28" t="n">
-        <v>15.58452953890443</v>
+        <v>15.55874470825737</v>
       </c>
       <c r="F28" t="n">
-        <v>6.889400851884764</v>
+        <v>6.890293815272505</v>
       </c>
       <c r="G28" t="n">
         <v>100</v>
@@ -2815,19 +2815,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>189.5647031424968</v>
+        <v>189.5828302536626</v>
       </c>
       <c r="C29" t="n">
-        <v>0.4570185228972809</v>
+        <v>0.4568542062065439</v>
       </c>
       <c r="D29" t="n">
-        <v>2835.771539979799</v>
+        <v>2835.819686886375</v>
       </c>
       <c r="E29" t="n">
-        <v>68.18914061376769</v>
+        <v>68.15881033118089</v>
       </c>
       <c r="F29" t="n">
-        <v>7.058504710153554</v>
+        <v>7.058770260064882</v>
       </c>
       <c r="G29" t="n">
         <v>100</v>
@@ -2840,22 +2840,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>116.4113922813207</v>
+        <v>116.4104231606578</v>
       </c>
       <c r="C30" t="n">
-        <v>0.1771175515149332</v>
+        <v>0.1771120001927692</v>
       </c>
       <c r="D30" t="n">
-        <v>2687.844704223074</v>
+        <v>2687.931291970532</v>
       </c>
       <c r="E30" t="n">
-        <v>68.18914061376769</v>
+        <v>68.15881033118089</v>
       </c>
       <c r="F30" t="n">
-        <v>7.134535310062239</v>
+        <v>7.134771639985414</v>
       </c>
       <c r="G30" t="n">
-        <v>99.42027496985459</v>
+        <v>99.42425468289507</v>
       </c>
     </row>
     <row r="31">
@@ -2865,22 +2865,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>103.735937180121</v>
+        <v>103.7465326492249</v>
       </c>
       <c r="C31" t="n">
-        <v>0.115707371405832</v>
+        <v>0.1157501429207094</v>
       </c>
       <c r="D31" t="n">
-        <v>2628.941329041216</v>
+        <v>2629.08121724766</v>
       </c>
       <c r="E31" t="n">
-        <v>52.54067455077802</v>
+        <v>52.52233922500557</v>
       </c>
       <c r="F31" t="n">
-        <v>7.170626573594116</v>
+        <v>7.17083396082812</v>
       </c>
       <c r="G31" t="n">
-        <v>97.66371830053632</v>
+        <v>97.66918169657187</v>
       </c>
     </row>
     <row r="32">
@@ -2890,19 +2890,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>69.16639686747408</v>
+        <v>69.2348532937246</v>
       </c>
       <c r="C32" t="n">
-        <v>0.008681520426603249</v>
+        <v>0.008632234055127953</v>
       </c>
       <c r="D32" t="n">
-        <v>2628.941329041216</v>
+        <v>2629.08121724766</v>
       </c>
       <c r="E32" t="n">
-        <v>4.455210770190142</v>
+        <v>4.427587735656907</v>
       </c>
       <c r="F32" t="n">
-        <v>8.350328320483181</v>
+        <v>8.353359346231903</v>
       </c>
       <c r="G32" t="n">
         <v>100</v>
@@ -2915,19 +2915,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>65.24509349367548</v>
+        <v>65.44960554700367</v>
       </c>
       <c r="C33" t="n">
-        <v>0.002409918294664033</v>
+        <v>0.002408239975395542</v>
       </c>
       <c r="D33" t="n">
-        <v>2622.753285690283</v>
+        <v>2623.139003798397</v>
       </c>
       <c r="E33" t="n">
-        <v>4.455210770190142</v>
+        <v>4.427587735656907</v>
       </c>
       <c r="F33" t="n">
-        <v>8.922954595671088</v>
+        <v>8.924415434152808</v>
       </c>
       <c r="G33" t="n">
         <v>100</v>
@@ -2940,16 +2940,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>20.48087810112401</v>
+        <v>20.46959046571033</v>
       </c>
       <c r="C34" t="n">
-        <v>0.002409918294664033</v>
+        <v>0.002408239975395542</v>
       </c>
       <c r="D34" t="n">
-        <v>85.92629861433967</v>
+        <v>85.87906918890948</v>
       </c>
       <c r="E34" t="n">
-        <v>4.455210770190142</v>
+        <v>4.427587735656907</v>
       </c>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
@@ -2961,16 +2961,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>22.50046548614199</v>
+        <v>22.48916858260833</v>
       </c>
       <c r="C35" t="n">
         <v>0.6964</v>
       </c>
       <c r="D35" t="n">
-        <v>95.0226611608874</v>
+        <v>94.97543194200857</v>
       </c>
       <c r="E35" t="n">
-        <v>4.455210770190142</v>
+        <v>4.427587735656907</v>
       </c>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
@@ -3066,16 +3066,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>494.1784555898712</v>
+        <v>494.1782480536211</v>
       </c>
       <c r="C40" t="n">
         <v>2</v>
       </c>
       <c r="D40" t="n">
-        <v>3455.402625752494</v>
+        <v>3455.402168230925</v>
       </c>
       <c r="E40" t="n">
-        <v>5.08208480590931</v>
+        <v>5.082086317539378</v>
       </c>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr"/>
@@ -3096,7 +3096,7 @@
         <v>284.8992297912401</v>
       </c>
       <c r="E41" t="n">
-        <v>6.048027587863366</v>
+        <v>6.047853993049597</v>
       </c>
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr"/>
@@ -3108,16 +3108,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>509.1784555898712</v>
+        <v>509.1782480536211</v>
       </c>
       <c r="C42" t="n">
-        <v>7.107046107909964</v>
+        <v>7.106038228329272</v>
       </c>
       <c r="D42" t="n">
-        <v>3432.398468598518</v>
+        <v>3432.409228549098</v>
       </c>
       <c r="E42" t="n">
-        <v>6.048027587863366</v>
+        <v>6.047853993049597</v>
       </c>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr"/>
@@ -3219,7 +3219,7 @@
         <v>3687.984095444761</v>
       </c>
       <c r="E2" t="n">
-        <v>5.986956470335925</v>
+        <v>5.98695825111365</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -3262,7 +3262,7 @@
         <v>3030.242194144161</v>
       </c>
       <c r="E3" t="n">
-        <v>5.986956470335925</v>
+        <v>5.98695825111365</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -3305,7 +3305,7 @@
         <v>2555.053440566289</v>
       </c>
       <c r="E4" t="n">
-        <v>5.986956470335925</v>
+        <v>5.98695825111365</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -3348,7 +3348,7 @@
         <v>791.1357141934237</v>
       </c>
       <c r="E5" t="n">
-        <v>5.986956470335925</v>
+        <v>5.98695825111365</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -3391,7 +3391,7 @@
         <v>1348.041621038311</v>
       </c>
       <c r="E6" t="n">
-        <v>2.381347273307606</v>
+        <v>2.381347981622457</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -3406,13 +3406,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.0509488958594417</v>
+        <v>0.05094889585944186</v>
       </c>
       <c r="K6" t="n">
         <v>0.0976743545348964</v>
       </c>
       <c r="L6" t="n">
-        <v>0.6806996788173058</v>
+        <v>0.6806996788173056</v>
       </c>
       <c r="M6" t="n">
         <v>0.002008604154522552</v>
@@ -3637,16 +3637,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.725513110099226</v>
+        <v>1.726100846179963</v>
       </c>
       <c r="C2" t="n">
-        <v>1.891117717235786</v>
+        <v>1.892124463963952</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9124303021291441</v>
+        <v>0.9122554456929467</v>
       </c>
       <c r="E2" t="n">
-        <v>0.2556401339252583</v>
+        <v>0.2554495743515633</v>
       </c>
     </row>
     <row r="3">
@@ -3679,11 +3679,11 @@
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="n">
-        <v>141.7671539295201</v>
+        <v>141.7297740678304</v>
       </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="n">
-        <v>32.7306868140336</v>
+        <v>32.72743657288737</v>
       </c>
     </row>
     <row r="6">
@@ -3694,7 +3694,7 @@
       </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="n">
-        <v>6.250685668525084</v>
+        <v>6.250606356699567</v>
       </c>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
@@ -3706,7 +3706,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>43.84533558669319</v>
+        <v>43.83313218322452</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
@@ -3719,12 +3719,12 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>30.63593967997229</v>
+        <v>30.63598186457056</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="n">
-        <v>0.8493837151404159</v>
+        <v>0.849383756767043</v>
       </c>
     </row>
     <row r="9">
@@ -3734,12 +3734,12 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>10.08700380396506</v>
+        <v>10.07989705925172</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="n">
-        <v>0.8331774145235693</v>
+        <v>0.8331950634645827</v>
       </c>
     </row>
     <row r="10">
@@ -3749,12 +3749,12 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3.094823065372371</v>
+        <v>3.090943588011622</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="n">
-        <v>0.8123968698708004</v>
+        <v>0.8123768807689205</v>
       </c>
     </row>
     <row r="11">
@@ -3764,12 +3764,12 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.02756903738348103</v>
+        <v>0.02630967139061198</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="n">
-        <v>0.03434535462005896</v>
+        <v>0.03310205096162397</v>
       </c>
     </row>
     <row r="12">
@@ -3779,13 +3779,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.04052621238693364</v>
+        <v>0.04027494416470781</v>
       </c>
       <c r="C12" t="n">
-        <v>0.04540581904164908</v>
+        <v>0.0451248653098896</v>
       </c>
       <c r="D12" t="n">
-        <v>0.892533451489124</v>
+        <v>0.8925222022963274</v>
       </c>
       <c r="E12" t="n">
         <v>0.07642926562499497</v>
@@ -3856,10 +3856,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>39059.093272673</v>
+        <v>39054.19368597068</v>
       </c>
       <c r="C2" t="n">
-        <v>39453.62956835657</v>
+        <v>39448.68049087947</v>
       </c>
       <c r="D2" t="n">
         <v>0.99</v>
@@ -3872,10 +3872,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>86749.46241277923</v>
+        <v>86739.15040823753</v>
       </c>
       <c r="C3" t="n">
-        <v>87625.71960886792</v>
+        <v>87615.30344266417</v>
       </c>
       <c r="D3" t="n">
         <v>0.99</v>
@@ -3888,10 +3888,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>34149.8639210441</v>
+        <v>34098.32795084122</v>
       </c>
       <c r="C4" t="n">
-        <v>34494.81204145869</v>
+        <v>34442.75550590022</v>
       </c>
       <c r="D4" t="n">
         <v>0.99</v>
@@ -3904,10 +3904,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>470.0538454835927</v>
+        <v>469.9184026140179</v>
       </c>
       <c r="C5" t="n">
-        <v>474.8018641248411</v>
+        <v>474.6650531454727</v>
       </c>
       <c r="D5" t="n">
         <v>0.99</v>
@@ -3920,10 +3920,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>30158.40135792338</v>
+        <v>30112.0934239704</v>
       </c>
       <c r="C6" t="n">
-        <v>30463.03167467008</v>
+        <v>30416.25598380848</v>
       </c>
       <c r="D6" t="n">
         <v>0.99</v>
@@ -3936,10 +3936,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>32390.41634670848</v>
+        <v>32415.92351296917</v>
       </c>
       <c r="C7" t="n">
-        <v>32717.59226940251</v>
+        <v>32743.35708380724</v>
       </c>
       <c r="D7" t="n">
         <v>0.99</v>
@@ -3952,7 +3952,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>34.1749798038194</v>
+        <v>34.15027592951411</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="n">
@@ -3966,7 +3966,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>105.5617126672779</v>
+        <v>105.5851161317199</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="n">
@@ -3980,7 +3980,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9.308770436160096</v>
+        <v>9.310548239422349</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="n">
@@ -3994,7 +3994,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>17230.85836989525</v>
+        <v>17230.86116992772</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
@@ -4006,7 +4006,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1805.303859190113</v>
+        <v>1804.819744223528</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
@@ -4018,7 +4018,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>11397.2486218711</v>
+        <v>11397.25433706595</v>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
@@ -4030,7 +4030,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>3937.872131802679</v>
+        <v>3937.873303094806</v>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
@@ -4042,7 +4042,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>2844.934382863907</v>
+        <v>2844.935229069454</v>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
@@ -4054,7 +4054,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>10560.49864504826</v>
+        <v>10560.50178619366</v>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
@@ -4066,7 +4066,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>19148.60901890496</v>
+        <v>19148.13006258144</v>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
@@ -4205,7 +4205,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.855771785159484</v>
+        <v>0.8555461431113754</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
@@ -4420,13 +4420,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>461.0771498301613</v>
+        <v>461.0756668833079</v>
       </c>
       <c r="C6" t="n">
         <v>0.1</v>
       </c>
       <c r="D6" t="n">
-        <v>866.1392174922263</v>
+        <v>866.1375403055169</v>
       </c>
       <c r="E6" t="n">
         <v>520.834447815</v>
@@ -4444,13 +4444,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>304.5552762347605</v>
+        <v>304.5553219982045</v>
       </c>
       <c r="C7" t="n">
         <v>0.1</v>
       </c>
       <c r="D7" t="n">
-        <v>692.3516235435678</v>
+        <v>692.351673428391</v>
       </c>
       <c r="E7" t="n">
         <v>520.834447815</v>
@@ -4468,13 +4468,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>235.659257781109</v>
+        <v>235.6600680901267</v>
       </c>
       <c r="C8" t="n">
         <v>0.1</v>
       </c>
       <c r="D8" t="n">
-        <v>617.8202826195012</v>
+        <v>617.821152777883</v>
       </c>
       <c r="E8" t="n">
         <v>520.834447815</v>
@@ -4492,13 +4492,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>234.7367686952006</v>
+        <v>234.7375796889179</v>
       </c>
       <c r="C9" t="n">
         <v>0.1</v>
       </c>
       <c r="D9" t="n">
-        <v>616.8297520009597</v>
+        <v>616.8306227305189</v>
       </c>
       <c r="E9" t="n">
         <v>520.834447815</v>
@@ -4516,13 +4516,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>175.4963495154592</v>
+        <v>175.4965404794965</v>
       </c>
       <c r="C10" t="n">
         <v>0.1</v>
       </c>
       <c r="D10" t="n">
-        <v>553.5906791973764</v>
+        <v>553.5908819428157</v>
       </c>
       <c r="E10" t="n">
         <v>520.834447815</v>
@@ -4540,13 +4540,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>107.7509908270599</v>
+        <v>107.74556011876</v>
       </c>
       <c r="C11" t="n">
         <v>0.1</v>
       </c>
       <c r="D11" t="n">
-        <v>482.049685728619</v>
+        <v>482.0439784875115</v>
       </c>
       <c r="E11" t="n">
         <v>520.834447815</v>
@@ -4668,16 +4668,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>503.3823324415719</v>
+        <v>503.3804286212774</v>
       </c>
       <c r="C3" t="n">
-        <v>7.81052951493338</v>
+        <v>7.810318999876722</v>
       </c>
       <c r="D3" t="n">
-        <v>3410.098719780211</v>
+        <v>3410.094026863558</v>
       </c>
       <c r="E3" t="n">
-        <v>62.4304565693223</v>
+        <v>62.43039849423881</v>
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
@@ -4689,16 +4689,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>296.4488095791992</v>
+        <v>296.4489307435285</v>
       </c>
       <c r="C4" t="n">
-        <v>8.166431252278809</v>
+        <v>8.166445356289096</v>
       </c>
       <c r="D4" t="n">
-        <v>2756.184436787143</v>
+        <v>2756.184222951915</v>
       </c>
       <c r="E4" t="n">
-        <v>62.4304565693223</v>
+        <v>62.43039849423881</v>
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
@@ -4710,16 +4710,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>295.6675978777408</v>
+        <v>295.6677396921826</v>
       </c>
       <c r="C5" t="n">
-        <v>8.166431252278809</v>
+        <v>8.166445356289096</v>
       </c>
       <c r="D5" t="n">
-        <v>1320.846996693309</v>
+        <v>1320.847779905479</v>
       </c>
       <c r="E5" t="n">
-        <v>62.4304565693223</v>
+        <v>62.43039849423881</v>
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
@@ -4731,16 +4731,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>165.8765216054753</v>
+        <v>165.8766467240479</v>
       </c>
       <c r="C6" t="n">
-        <v>8.166431252278809</v>
+        <v>8.166445356289096</v>
       </c>
       <c r="D6" t="n">
-        <v>705.2900708994393</v>
+        <v>705.2906203132695</v>
       </c>
       <c r="E6" t="n">
-        <v>62.4304565693223</v>
+        <v>62.43039849423881</v>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
@@ -4752,16 +4752,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>164.1505341805632</v>
+        <v>164.1506113914407</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6862975632706431</v>
+        <v>0.6862988825314605</v>
       </c>
       <c r="D7" t="n">
-        <v>693.5332430954971</v>
+        <v>693.5335795798785</v>
       </c>
       <c r="E7" t="n">
-        <v>62.4304565693223</v>
+        <v>62.43039849423881</v>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
@@ -4773,16 +4773,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>176.2522262552433</v>
+        <v>176.2537160473841</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6790677330563324</v>
+        <v>0.6790708328978508</v>
       </c>
       <c r="D8" t="n">
-        <v>2791.978233951703</v>
+        <v>2791.981636773169</v>
       </c>
       <c r="E8" t="n">
-        <v>16.98581757954484</v>
+        <v>16.98661766842434</v>
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
@@ -4794,16 +4794,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>164.1505340455018</v>
+        <v>164.150611256379</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6862975632706431</v>
+        <v>0.6862988825314605</v>
       </c>
       <c r="D9" t="n">
-        <v>2761.916279372598</v>
+        <v>2761.916360887112</v>
       </c>
       <c r="E9" t="n">
-        <v>16.98581757954484</v>
+        <v>16.98661766842434</v>
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
@@ -4815,16 +4815,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>164.1505341805632</v>
+        <v>164.1506113914407</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6862975632706431</v>
+        <v>0.6862988825314605</v>
       </c>
       <c r="D10" t="n">
-        <v>725.3327585877453</v>
+        <v>725.3758729625106</v>
       </c>
       <c r="E10" t="n">
-        <v>79.41627414886715</v>
+        <v>79.41701616266315</v>
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
@@ -4836,16 +4836,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>164.1505341805632</v>
+        <v>164.1506113914407</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6862975632706431</v>
+        <v>0.6862988825314605</v>
       </c>
       <c r="D11" t="n">
-        <v>725.3327585877453</v>
+        <v>725.3758729625106</v>
       </c>
       <c r="E11" t="n">
-        <v>79.41453042723879</v>
+        <v>79.4153043920204</v>
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
@@ -4857,16 +4857,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>62.17070166643856</v>
+        <v>62.17269808344565</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6862975632706431</v>
+        <v>0.6862988825314605</v>
       </c>
       <c r="D12" t="n">
-        <v>260.8308786599017</v>
+        <v>260.8392329145504</v>
       </c>
       <c r="E12" t="n">
-        <v>79.41627414886715</v>
+        <v>79.41701616266315</v>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
@@ -4878,16 +4878,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>62.17105570328403</v>
+        <v>62.1722714175562</v>
       </c>
       <c r="C13" t="n">
         <v>0.6964</v>
       </c>
       <c r="D13" t="n">
-        <v>260.8323601708737</v>
+        <v>260.8374474780638</v>
       </c>
       <c r="E13" t="n">
-        <v>75.63693736854376</v>
+        <v>75.63411651878033</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
@@ -4899,16 +4899,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>62.17105570328403</v>
+        <v>62.1722714175562</v>
       </c>
       <c r="C14" t="n">
         <v>0.6964</v>
       </c>
       <c r="D14" t="n">
-        <v>260.8323601708737</v>
+        <v>260.8374474780638</v>
       </c>
       <c r="E14" t="n">
-        <v>75.63693736854376</v>
+        <v>75.63411651878033</v>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
@@ -4920,16 +4920,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>100.6318675253415</v>
+        <v>100.6334259069404</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1037263903799214</v>
+        <v>0.1037321368889764</v>
       </c>
       <c r="D15" t="n">
-        <v>421.8318726872444</v>
+        <v>421.838447762939</v>
       </c>
       <c r="E15" t="n">
-        <v>67.44162102210841</v>
+        <v>67.44136842710797</v>
       </c>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
@@ -4941,16 +4941,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>66.92426175220061</v>
+        <v>66.92450146654176</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1037264788113144</v>
+        <v>0.1037323341398012</v>
       </c>
       <c r="D16" t="n">
-        <v>280.2396745975324</v>
+        <v>280.240683427734</v>
       </c>
       <c r="E16" t="n">
-        <v>67.44117065146628</v>
+        <v>67.44058519069836</v>
       </c>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
@@ -5004,13 +5004,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>83.62515346611491</v>
+        <v>83.62596405729346</v>
       </c>
       <c r="C19" t="n">
         <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>350.1385175626231</v>
+        <v>350.1419115078878</v>
       </c>
       <c r="E19" t="n">
         <v>87.76856420354525</v>
@@ -5025,16 +5025,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>117.0808705200613</v>
+        <v>117.0810244119525</v>
       </c>
       <c r="C20" t="n">
-        <v>0.180978015135267</v>
+        <v>0.1809755587335626</v>
       </c>
       <c r="D20" t="n">
-        <v>2669.477483154387</v>
+        <v>2669.482926084097</v>
       </c>
       <c r="E20" t="n">
-        <v>18.87363944562817</v>
+        <v>18.87163368342483</v>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
@@ -5046,16 +5046,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>115.494571864495</v>
+        <v>115.494154441937</v>
       </c>
       <c r="C21" t="n">
-        <v>0.1719291143785036</v>
+        <v>0.1719267807968844</v>
       </c>
       <c r="D21" t="n">
-        <v>484.6902748421497</v>
+        <v>484.6885048316602</v>
       </c>
       <c r="E21" t="n">
-        <v>18.87363944562817</v>
+        <v>18.87163368342483</v>
       </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
@@ -5067,13 +5067,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.44726507170272</v>
+        <v>97.44870601858824</v>
       </c>
       <c r="C22" t="n">
         <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>408.0116988552193</v>
+        <v>408.017732099829</v>
       </c>
       <c r="E22" t="n">
         <v>696.7367436759</v>
@@ -5109,7 +5109,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>61.14062108698985</v>
+        <v>61.14072319790125</v>
       </c>
       <c r="C24" t="n">
         <v>1</v>
@@ -5130,16 +5130,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>102.0811524328188</v>
+        <v>102.0827246861378</v>
       </c>
       <c r="C25" t="n">
-        <v>0.1091856740841278</v>
+        <v>0.1091917230410278</v>
       </c>
       <c r="D25" t="n">
-        <v>2600.19290542447</v>
+        <v>2600.204923831205</v>
       </c>
       <c r="E25" t="n">
-        <v>48.56796289698641</v>
+        <v>48.56978507165809</v>
       </c>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
@@ -5151,19 +5151,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>500.580403122232</v>
+        <v>500.5764459918072</v>
       </c>
       <c r="C26" t="n">
-        <v>7.229013811380033</v>
+        <v>7.228595216651011</v>
       </c>
       <c r="D26" t="n">
-        <v>3410.098719780211</v>
+        <v>3410.094026863558</v>
       </c>
       <c r="E26" t="n">
-        <v>58.65168412408722</v>
+        <v>58.64835955099399</v>
       </c>
       <c r="F26" t="n">
-        <v>6.784253693223397</v>
+        <v>6.784272829806952</v>
       </c>
       <c r="G26" t="n">
         <v>100</v>
@@ -5176,19 +5176,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>189.9065368575486</v>
+        <v>189.9071977785295</v>
       </c>
       <c r="C27" t="n">
-        <v>0.4984076377607725</v>
+        <v>0.49839493364059</v>
       </c>
       <c r="D27" t="n">
-        <v>2834.17065964426</v>
+        <v>2834.172813705662</v>
       </c>
       <c r="E27" t="n">
-        <v>58.65168412408722</v>
+        <v>58.64835955099399</v>
       </c>
       <c r="F27" t="n">
-        <v>7.016161012940244</v>
+        <v>7.016177082914772</v>
       </c>
       <c r="G27" t="n">
         <v>100</v>
@@ -5201,19 +5201,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>173.2788979143558</v>
+        <v>173.2802263618744</v>
       </c>
       <c r="C28" t="n">
-        <v>0.5805168500555266</v>
+        <v>0.5805118813551521</v>
       </c>
       <c r="D28" t="n">
-        <v>2791.978233951703</v>
+        <v>2791.981636773169</v>
       </c>
       <c r="E28" t="n">
-        <v>16.98581757954484</v>
+        <v>16.98661766842434</v>
       </c>
       <c r="F28" t="n">
-        <v>6.855410244545732</v>
+        <v>6.855421654931915</v>
       </c>
       <c r="G28" t="n">
         <v>100</v>
@@ -5226,19 +5226,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>185.5502784093632</v>
+        <v>185.5506994303001</v>
       </c>
       <c r="C29" t="n">
-        <v>0.4984076377607725</v>
+        <v>0.49839493364059</v>
       </c>
       <c r="D29" t="n">
-        <v>2824.695560256916</v>
+        <v>2824.697232197203</v>
       </c>
       <c r="E29" t="n">
-        <v>75.63750170363207</v>
+        <v>75.63497721941832</v>
       </c>
       <c r="F29" t="n">
-        <v>6.995601974938436</v>
+        <v>6.995617022919079</v>
       </c>
       <c r="G29" t="n">
         <v>100</v>
@@ -5251,22 +5251,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>117.0800461439934</v>
+        <v>117.0806717735159</v>
       </c>
       <c r="C30" t="n">
-        <v>0.1809818491940514</v>
+        <v>0.1809854968865649</v>
       </c>
       <c r="D30" t="n">
-        <v>2669.474198147217</v>
+        <v>2669.481520833594</v>
       </c>
       <c r="E30" t="n">
-        <v>75.63750170363207</v>
+        <v>75.63497721941832</v>
       </c>
       <c r="F30" t="n">
-        <v>7.07778149607583</v>
+        <v>7.077791302827424</v>
       </c>
       <c r="G30" t="n">
-        <v>98.54401248686526</v>
+        <v>98.54430096595966</v>
       </c>
     </row>
     <row r="31">
@@ -5276,22 +5276,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>102.0804781407704</v>
+        <v>102.0823380555696</v>
       </c>
       <c r="C31" t="n">
-        <v>0.1091830799537604</v>
+        <v>0.109190235524999</v>
       </c>
       <c r="D31" t="n">
-        <v>2600.190176661201</v>
+        <v>2600.203292741731</v>
       </c>
       <c r="E31" t="n">
-        <v>56.76384357851007</v>
+        <v>56.76339386396843</v>
       </c>
       <c r="F31" t="n">
-        <v>7.119746197134468</v>
+        <v>7.119752436994582</v>
       </c>
       <c r="G31" t="n">
-        <v>96.50581733560304</v>
+        <v>96.50626295596528</v>
       </c>
     </row>
     <row r="32">
@@ -5301,19 +5301,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>54.97741166673609</v>
+        <v>54.98360365590332</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0152327677434134</v>
+        <v>0.01522886574444464</v>
       </c>
       <c r="D32" t="n">
-        <v>2600.190176661201</v>
+        <v>2600.203292741731</v>
       </c>
       <c r="E32" t="n">
-        <v>8.195766717077476</v>
+        <v>8.193531328081981</v>
       </c>
       <c r="F32" t="n">
-        <v>8.005822842477022</v>
+        <v>8.005980528206704</v>
       </c>
       <c r="G32" t="n">
         <v>100</v>
@@ -5326,19 +5326,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>28.76321049769098</v>
+        <v>28.78402477330224</v>
       </c>
       <c r="C33" t="n">
-        <v>0.00263593324958471</v>
+        <v>0.002635797675357144</v>
       </c>
       <c r="D33" t="n">
-        <v>2553.915111897197</v>
+        <v>2553.95456809033</v>
       </c>
       <c r="E33" t="n">
-        <v>8.195766717077476</v>
+        <v>8.193531328081981</v>
       </c>
       <c r="F33" t="n">
-        <v>8.666360017267486</v>
+        <v>8.666514408489162</v>
       </c>
       <c r="G33" t="n">
         <v>100</v>
@@ -5351,16 +5351,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>21.94159150975906</v>
+        <v>21.94074868309548</v>
       </c>
       <c r="C34" t="n">
-        <v>0.00263593324958471</v>
+        <v>0.002635797675357144</v>
       </c>
       <c r="D34" t="n">
-        <v>92.03749567555703</v>
+        <v>92.03396990692966</v>
       </c>
       <c r="E34" t="n">
-        <v>8.195766717077476</v>
+        <v>8.193531328081981</v>
       </c>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
@@ -5372,16 +5372,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>23.96233812357366</v>
+        <v>23.96149464967976</v>
       </c>
       <c r="C35" t="n">
         <v>0.6964</v>
       </c>
       <c r="D35" t="n">
-        <v>101.1338170915905</v>
+        <v>101.1302913518576</v>
       </c>
       <c r="E35" t="n">
-        <v>8.195766717077476</v>
+        <v>8.193531328081981</v>
       </c>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
@@ -5477,16 +5477,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>494.1784555898712</v>
+        <v>494.1782480536211</v>
       </c>
       <c r="C40" t="n">
         <v>2</v>
       </c>
       <c r="D40" t="n">
-        <v>3455.402625752494</v>
+        <v>3455.402168230925</v>
       </c>
       <c r="E40" t="n">
-        <v>5.08208480590931</v>
+        <v>5.082086317539378</v>
       </c>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr"/>
@@ -5519,16 +5519,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>509.1784555898712</v>
+        <v>509.1782480536211</v>
       </c>
       <c r="C42" t="n">
-        <v>7.107046107909964</v>
+        <v>7.106038228329272</v>
       </c>
       <c r="D42" t="n">
-        <v>3432.398468598518</v>
+        <v>3432.409228549098</v>
       </c>
       <c r="E42" t="n">
-        <v>6.048027587863366</v>
+        <v>6.047853993049597</v>
       </c>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr"/>

--- a/ПКМ/resdata PKM Temp=-15, Volume=10x15x4.xlsx
+++ b/ПКМ/resdata PKM Temp=-15, Volume=10x15x4.xlsx
@@ -527,7 +527,7 @@
         <v>945.3090876972303</v>
       </c>
       <c r="E3" t="n">
-        <v>472.0059302480203</v>
+        <v>472.0836796287063</v>
       </c>
       <c r="F3" t="n">
         <v>0.7803</v>
@@ -561,7 +561,7 @@
         <v>1531.123730073688</v>
       </c>
       <c r="E4" t="n">
-        <v>6.865286165366731</v>
+        <v>6.865299617423743</v>
       </c>
       <c r="F4" t="n">
         <v>0.710320591016015</v>
@@ -586,31 +586,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>534.8193292067947</v>
+        <v>534.8186402583086</v>
       </c>
       <c r="C5" t="n">
         <v>0.1</v>
       </c>
       <c r="D5" t="n">
-        <v>953.7075568929747</v>
+        <v>953.706209759206</v>
       </c>
       <c r="E5" t="n">
-        <v>478.8712164133871</v>
+        <v>478.94897924613</v>
       </c>
       <c r="F5" t="n">
-        <v>0.7792728561097537</v>
+        <v>0.7792730208089371</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1220306510833067</v>
+        <v>0.1220309187579782</v>
       </c>
       <c r="H5" t="n">
-        <v>0.03098710515377774</v>
+        <v>0.03098696290935039</v>
       </c>
       <c r="I5" t="n">
-        <v>0.06117794080857088</v>
+        <v>0.06117765572154248</v>
       </c>
       <c r="J5" t="n">
-        <v>0.006531446844591045</v>
+        <v>0.00653144180219175</v>
       </c>
     </row>
     <row r="6">
@@ -620,31 +620,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>462.696901982306</v>
+        <v>462.7009317991422</v>
       </c>
       <c r="C6" t="n">
         <v>0.1</v>
       </c>
       <c r="D6" t="n">
-        <v>871.329081973686</v>
+        <v>871.3331079632013</v>
       </c>
       <c r="E6" t="n">
-        <v>478.8712164133871</v>
+        <v>478.94897924613</v>
       </c>
       <c r="F6" t="n">
-        <v>0.7792728561097537</v>
+        <v>0.7792730208089371</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1220306510833067</v>
+        <v>0.1220309187579782</v>
       </c>
       <c r="H6" t="n">
-        <v>0.03098710515377774</v>
+        <v>0.03098696290935039</v>
       </c>
       <c r="I6" t="n">
-        <v>0.06117794080857088</v>
+        <v>0.06117765572154248</v>
       </c>
       <c r="J6" t="n">
-        <v>0.006531446844591045</v>
+        <v>0.00653144180219175</v>
       </c>
     </row>
     <row r="7">
@@ -654,31 +654,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>297.9993561485579</v>
+        <v>298.0125264674068</v>
       </c>
       <c r="C7" t="n">
         <v>0.1</v>
       </c>
       <c r="D7" t="n">
-        <v>688.3669400874425</v>
+        <v>688.380784164341</v>
       </c>
       <c r="E7" t="n">
-        <v>478.8712164133871</v>
+        <v>478.94897924613</v>
       </c>
       <c r="F7" t="n">
-        <v>0.7792728561097537</v>
+        <v>0.7792730208089371</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1220306510833067</v>
+        <v>0.1220309187579782</v>
       </c>
       <c r="H7" t="n">
-        <v>0.03098710515377774</v>
+        <v>0.03098696290935039</v>
       </c>
       <c r="I7" t="n">
-        <v>0.06117794080857088</v>
+        <v>0.06117765572154248</v>
       </c>
       <c r="J7" t="n">
-        <v>0.006531446844591045</v>
+        <v>0.00653144180219175</v>
       </c>
     </row>
     <row r="8">
@@ -688,31 +688,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>231.5049407706309</v>
+        <v>231.5212952431238</v>
       </c>
       <c r="C8" t="n">
         <v>0.1</v>
       </c>
       <c r="D8" t="n">
-        <v>616.4420585632053</v>
+        <v>616.459130014291</v>
       </c>
       <c r="E8" t="n">
-        <v>478.8712164133871</v>
+        <v>478.94897924613</v>
       </c>
       <c r="F8" t="n">
-        <v>0.7792728561097537</v>
+        <v>0.7792730208089371</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1220306510833067</v>
+        <v>0.1220309187579782</v>
       </c>
       <c r="H8" t="n">
-        <v>0.03098710515377774</v>
+        <v>0.03098696290935039</v>
       </c>
       <c r="I8" t="n">
-        <v>0.06117794080857088</v>
+        <v>0.06117765572154248</v>
       </c>
       <c r="J8" t="n">
-        <v>0.006531446844591045</v>
+        <v>0.00653144180219175</v>
       </c>
     </row>
     <row r="9">
@@ -722,31 +722,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>230.5819825960301</v>
+        <v>230.5983247599696</v>
       </c>
       <c r="C9" t="n">
         <v>0.1</v>
       </c>
       <c r="D9" t="n">
-        <v>615.4508420589004</v>
+        <v>615.4678971650369</v>
       </c>
       <c r="E9" t="n">
-        <v>478.8712164133871</v>
+        <v>478.94897924613</v>
       </c>
       <c r="F9" t="n">
-        <v>0.7792728561097537</v>
+        <v>0.7792730208089371</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1220306510833067</v>
+        <v>0.1220309187579782</v>
       </c>
       <c r="H9" t="n">
-        <v>0.03098710515377774</v>
+        <v>0.03098696290935039</v>
       </c>
       <c r="I9" t="n">
-        <v>0.06117794080857088</v>
+        <v>0.06117765572154248</v>
       </c>
       <c r="J9" t="n">
-        <v>0.006531446844591045</v>
+        <v>0.00653144180219175</v>
       </c>
     </row>
     <row r="10">
@@ -756,31 +756,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>171.0938390460138</v>
+        <v>171.1016588381664</v>
       </c>
       <c r="C10" t="n">
         <v>0.1</v>
       </c>
       <c r="D10" t="n">
-        <v>551.9342744697732</v>
+        <v>551.9420948872184</v>
       </c>
       <c r="E10" t="n">
-        <v>478.8712164133871</v>
+        <v>478.94897924613</v>
       </c>
       <c r="F10" t="n">
-        <v>0.7792728561097537</v>
+        <v>0.7792730208089371</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1220306510833067</v>
+        <v>0.1220309187579782</v>
       </c>
       <c r="H10" t="n">
-        <v>0.03098710515377774</v>
+        <v>0.03098696290935039</v>
       </c>
       <c r="I10" t="n">
-        <v>0.06117794080857088</v>
+        <v>0.06117765572154248</v>
       </c>
       <c r="J10" t="n">
-        <v>0.006531446844591045</v>
+        <v>0.00653144180219175</v>
       </c>
     </row>
     <row r="11">
@@ -790,31 +790,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>106.3790331505207</v>
+        <v>106.3822491497424</v>
       </c>
       <c r="C11" t="n">
         <v>0.1</v>
       </c>
       <c r="D11" t="n">
-        <v>483.5581517012219</v>
+        <v>483.5610608200318</v>
       </c>
       <c r="E11" t="n">
-        <v>478.8712164133871</v>
+        <v>478.94897924613</v>
       </c>
       <c r="F11" t="n">
-        <v>0.7792728561097537</v>
+        <v>0.7792730208089371</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1220306510833067</v>
+        <v>0.1220309187579782</v>
       </c>
       <c r="H11" t="n">
-        <v>0.03098710515377774</v>
+        <v>0.03098696290935039</v>
       </c>
       <c r="I11" t="n">
-        <v>0.06117794080857088</v>
+        <v>0.06117765572154248</v>
       </c>
       <c r="J11" t="n">
-        <v>0.006531446844591045</v>
+        <v>0.00653144180219175</v>
       </c>
     </row>
     <row r="12">
@@ -833,7 +833,7 @@
         <v>288.39</v>
       </c>
       <c r="E12" t="n">
-        <v>6.507666840360557</v>
+        <v>6.507679591687048</v>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
@@ -857,7 +857,7 @@
         <v>881.5</v>
       </c>
       <c r="E13" t="n">
-        <v>0.3576193250061794</v>
+        <v>0.3576200257366999</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
@@ -962,7 +962,7 @@
         <v>3687.984095444761</v>
       </c>
       <c r="E2" t="n">
-        <v>5.98695825111365</v>
+        <v>5.986980166191078</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -1005,7 +1005,7 @@
         <v>3030.242194144161</v>
       </c>
       <c r="E3" t="n">
-        <v>5.98695825111365</v>
+        <v>5.986980166191078</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -1048,7 +1048,7 @@
         <v>2555.053440566289</v>
       </c>
       <c r="E4" t="n">
-        <v>5.98695825111365</v>
+        <v>5.986980166191078</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -1091,7 +1091,7 @@
         <v>791.1357141934237</v>
       </c>
       <c r="E5" t="n">
-        <v>5.98695825111365</v>
+        <v>5.986980166191078</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -1134,7 +1134,7 @@
         <v>1348.041621038311</v>
       </c>
       <c r="E6" t="n">
-        <v>2.381347981622457</v>
+        <v>2.381356698473855</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -1149,13 +1149,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.05094889585944186</v>
+        <v>0.0509488958594417</v>
       </c>
       <c r="K6" t="n">
-        <v>0.0976743545348964</v>
+        <v>0.09767435453489641</v>
       </c>
       <c r="L6" t="n">
-        <v>0.6806996788173056</v>
+        <v>0.6806996788173058</v>
       </c>
       <c r="M6" t="n">
         <v>0.002008604154522552</v>
@@ -1564,16 +1564,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7339967380985993</v>
+        <v>0.800691495919424</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7728494376898755</v>
+        <v>0.8303926613651766</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9497279836194088</v>
+        <v>0.9642323844758894</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7028914895136117</v>
+        <v>0.6741815677305901</v>
       </c>
     </row>
     <row r="3">
@@ -1633,7 +1633,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>49.82797889710262</v>
+        <v>54.01217603824073</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
@@ -1646,12 +1646,12 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>33.77683438232894</v>
+        <v>35.86847285054349</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="n">
-        <v>0.8493824520991574</v>
+        <v>0.8493528245292388</v>
       </c>
     </row>
     <row r="9">
@@ -1661,12 +1661,12 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>11.73973679308238</v>
+        <v>12.61632236687725</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="n">
-        <v>0.828777909325972</v>
+        <v>0.825927660370437</v>
       </c>
     </row>
     <row r="10">
@@ -1676,12 +1676,12 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3.932467347376221</v>
+        <v>4.482402366753703</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="n">
-        <v>0.8148136394857654</v>
+        <v>0.8148342925159625</v>
       </c>
     </row>
     <row r="11">
@@ -1691,12 +1691,12 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.3789403743150957</v>
+        <v>1.044978454066281</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="n">
-        <v>0.1916534200214997</v>
+        <v>0.3208919599546699</v>
       </c>
     </row>
     <row r="12">
@@ -1706,13 +1706,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.07453099472932066</v>
+        <v>0.1065717390823944</v>
       </c>
       <c r="C12" t="n">
-        <v>0.08335249076548201</v>
+        <v>0.1189540388386858</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8941663775713525</v>
+        <v>0.8959068571594853</v>
       </c>
       <c r="E12" t="n">
         <v>0.07642926562499497</v>
@@ -1787,10 +1787,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>40822.91647673791</v>
+        <v>40697.34669350167</v>
       </c>
       <c r="C2" t="n">
-        <v>41235.26916842214</v>
+        <v>41108.43100353704</v>
       </c>
       <c r="D2" t="n">
         <v>0.99</v>
@@ -1803,10 +1803,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>89608.52935286899</v>
+        <v>88035.20022008414</v>
       </c>
       <c r="C3" t="n">
-        <v>90513.66601299899</v>
+        <v>88924.44466675166</v>
       </c>
       <c r="D3" t="n">
         <v>0.99</v>
@@ -1819,10 +1819,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>38429.88194268809</v>
+        <v>38918.83167132074</v>
       </c>
       <c r="C4" t="n">
-        <v>38818.06256837181</v>
+        <v>39311.95118315226</v>
       </c>
       <c r="D4" t="n">
         <v>0.99</v>
@@ -1835,10 +1835,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>510.7431485603742</v>
+        <v>511.7407133161911</v>
       </c>
       <c r="C5" t="n">
-        <v>515.9021702630042</v>
+        <v>516.9098114304961</v>
       </c>
       <c r="D5" t="n">
         <v>0.99</v>
@@ -1851,10 +1851,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>32608.06111839587</v>
+        <v>33043.92536725792</v>
       </c>
       <c r="C6" t="n">
-        <v>32937.43547312715</v>
+        <v>33377.70239116962</v>
       </c>
       <c r="D6" t="n">
         <v>0.99</v>
@@ -1867,10 +1867,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>36891.4510344763</v>
+        <v>37779.05247240629</v>
       </c>
       <c r="C7" t="n">
-        <v>37264.09195401646</v>
+        <v>38160.65906303666</v>
       </c>
       <c r="D7" t="n">
         <v>0.99</v>
@@ -1883,7 +1883,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>40.81833359155148</v>
+        <v>43.98150883955246</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="n">
@@ -1897,7 +1897,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>105.9189816493301</v>
+        <v>102.988860313331</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="n">
@@ -1911,7 +1911,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9.453956795789978</v>
+        <v>9.220902883788074</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="n">
@@ -2257,16 +2257,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>509.1793509670586</v>
+        <v>509.1774419546456</v>
       </c>
       <c r="C3" t="n">
-        <v>7.10632766056856</v>
+        <v>7.107698494016519</v>
       </c>
       <c r="D3" t="n">
-        <v>3432.409273395542</v>
+        <v>3432.389276449648</v>
       </c>
       <c r="E3" t="n">
-        <v>58.64835955099399</v>
+        <v>58.65824788408549</v>
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
@@ -2278,16 +2278,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>290.1245175530996</v>
+        <v>290.1369240806392</v>
       </c>
       <c r="C4" t="n">
-        <v>7.455286028106524</v>
+        <v>7.456632917507068</v>
       </c>
       <c r="D4" t="n">
-        <v>2766.511861965945</v>
+        <v>2766.493178107778</v>
       </c>
       <c r="E4" t="n">
-        <v>58.64835955099399</v>
+        <v>58.65824788408549</v>
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
@@ -2299,16 +2299,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>289.5487450059946</v>
+        <v>289.5419095509541</v>
       </c>
       <c r="C5" t="n">
-        <v>7.455286028106524</v>
+        <v>7.456632917507068</v>
       </c>
       <c r="D5" t="n">
-        <v>1287.543767319914</v>
+        <v>1287.505178409511</v>
       </c>
       <c r="E5" t="n">
-        <v>58.64835955099399</v>
+        <v>58.65824788408549</v>
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
@@ -2320,16 +2320,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.1684279072642</v>
+        <v>166.1596680165424</v>
       </c>
       <c r="C6" t="n">
-        <v>7.455286028106524</v>
+        <v>7.456632917507068</v>
       </c>
       <c r="D6" t="n">
-        <v>706.1459682164215</v>
+        <v>706.1088095927726</v>
       </c>
       <c r="E6" t="n">
-        <v>58.64835955099399</v>
+        <v>58.65824788408549</v>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
@@ -2341,16 +2341,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>160.2856510572361</v>
+        <v>160.2908279186342</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6227392710733644</v>
+        <v>0.6228211494078114</v>
       </c>
       <c r="D7" t="n">
-        <v>676.7146105553578</v>
+        <v>676.7371062412166</v>
       </c>
       <c r="E7" t="n">
-        <v>58.64835955099399</v>
+        <v>58.65824788408549</v>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
@@ -2362,16 +2362,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>172.6338836467605</v>
+        <v>172.6380500215523</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6162679216898653</v>
+        <v>0.6163952483503727</v>
       </c>
       <c r="D8" t="n">
-        <v>2787.957886353767</v>
+        <v>2787.961905233253</v>
       </c>
       <c r="E8" t="n">
-        <v>15.55874470825737</v>
+        <v>15.56360051548478</v>
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
@@ -2383,16 +2383,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>160.2856509301793</v>
+        <v>160.2908277915672</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6227392710733644</v>
+        <v>0.6228211494078114</v>
       </c>
       <c r="D9" t="n">
-        <v>2757.755224602595</v>
+        <v>2757.760905021302</v>
       </c>
       <c r="E9" t="n">
-        <v>15.55874470825737</v>
+        <v>15.56360051548478</v>
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
@@ -2404,16 +2404,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>160.2856510572361</v>
+        <v>160.2908279186342</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6227392710733644</v>
+        <v>0.6228211494078114</v>
       </c>
       <c r="D10" t="n">
-        <v>707.2533526377066</v>
+        <v>707.2544120260932</v>
       </c>
       <c r="E10" t="n">
-        <v>74.20710425925137</v>
+        <v>74.22184839957028</v>
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
@@ -2425,16 +2425,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>160.2856510572361</v>
+        <v>160.2908279186342</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6227392710733644</v>
+        <v>0.6228211494078114</v>
       </c>
       <c r="D11" t="n">
-        <v>707.2533526377066</v>
+        <v>707.2544120260932</v>
       </c>
       <c r="E11" t="n">
-        <v>74.20773081588645</v>
+        <v>74.21731892955057</v>
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
@@ -2446,16 +2446,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>64.46202141024838</v>
+        <v>64.45365099367621</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6227392710733644</v>
+        <v>0.6228211494078114</v>
       </c>
       <c r="D12" t="n">
-        <v>270.4204569307274</v>
+        <v>270.3854205374345</v>
       </c>
       <c r="E12" t="n">
-        <v>74.20710425925137</v>
+        <v>74.22184839957028</v>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
@@ -2467,16 +2467,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>64.4625258022844</v>
+        <v>64.4533027386675</v>
       </c>
       <c r="C13" t="n">
         <v>0.6964</v>
       </c>
       <c r="D13" t="n">
-        <v>270.4225681861117</v>
+        <v>270.3839628330676</v>
       </c>
       <c r="E13" t="n">
-        <v>74.20819435646659</v>
+        <v>74.22335378706833</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
@@ -2488,16 +2488,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>64.15564238369194</v>
+        <v>64.14565405824891</v>
       </c>
       <c r="C14" t="n">
         <v>0.6964</v>
       </c>
       <c r="D14" t="n">
-        <v>269.1380567645461</v>
+        <v>269.0962497673214</v>
       </c>
       <c r="E14" t="n">
-        <v>68.16034036341699</v>
+        <v>68.17522980599367</v>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
@@ -2509,16 +2509,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>102.2829780941301</v>
+        <v>102.2759583638974</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1099644298020333</v>
+        <v>0.1099372669137459</v>
       </c>
       <c r="D15" t="n">
-        <v>428.7998879767144</v>
+        <v>428.7702560355451</v>
       </c>
       <c r="E15" t="n">
-        <v>63.7310622623249</v>
+        <v>63.73208064513619</v>
       </c>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
@@ -2530,16 +2530,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>67.16123093750593</v>
+        <v>67.15980790056051</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1099648108524114</v>
+        <v>0.1099376459388584</v>
       </c>
       <c r="D16" t="n">
-        <v>281.2373349202838</v>
+        <v>281.2313522277362</v>
       </c>
       <c r="E16" t="n">
-        <v>63.73275262776008</v>
+        <v>63.73281420997767</v>
       </c>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
@@ -2560,7 +2560,7 @@
         <v>192.602</v>
       </c>
       <c r="E17" t="n">
-        <v>664.8629065445498</v>
+        <v>664.8595205702029</v>
       </c>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
@@ -2581,7 +2581,7 @@
         <v>192.602</v>
       </c>
       <c r="E18" t="n">
-        <v>83.75338781724349</v>
+        <v>83.75296128296128</v>
       </c>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr"/>
@@ -2593,16 +2593,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>84.45032920962005</v>
+        <v>84.44623456959505</v>
       </c>
       <c r="C19" t="n">
         <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>353.5935284006792</v>
+        <v>353.5763841428945</v>
       </c>
       <c r="E19" t="n">
-        <v>83.75338781724349</v>
+        <v>83.75296128296128</v>
       </c>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
@@ -2614,16 +2614,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>116.4101099153467</v>
+        <v>116.4090878625148</v>
       </c>
       <c r="C20" t="n">
-        <v>0.1771031119017243</v>
+        <v>0.1771134081512138</v>
       </c>
       <c r="D20" t="n">
-        <v>2687.929979261559</v>
+        <v>2687.890351679865</v>
       </c>
       <c r="E20" t="n">
-        <v>15.63660377200332</v>
+        <v>15.64515212125012</v>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
@@ -2635,16 +2635,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>114.8302492490698</v>
+        <v>114.8320301738128</v>
       </c>
       <c r="C21" t="n">
-        <v>0.1682479563066381</v>
+        <v>0.1682577377436531</v>
       </c>
       <c r="D21" t="n">
-        <v>481.873682472056</v>
+        <v>481.8812322796502</v>
       </c>
       <c r="E21" t="n">
-        <v>15.63660377200332</v>
+        <v>15.64515212125012</v>
       </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
@@ -2656,16 +2656,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>99.17324124856547</v>
+        <v>99.16673468334437</v>
       </c>
       <c r="C22" t="n">
         <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>415.2383611077437</v>
+        <v>415.2111181191629</v>
       </c>
       <c r="E22" t="n">
-        <v>664.8629065445498</v>
+        <v>664.8595205702029</v>
       </c>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr"/>
@@ -2686,7 +2686,7 @@
         <v>466.60274855267</v>
       </c>
       <c r="E23" t="n">
-        <v>664.8629065445498</v>
+        <v>664.8595205702029</v>
       </c>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
@@ -2698,7 +2698,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>61.24456922935556</v>
+        <v>61.24405342381036</v>
       </c>
       <c r="C24" t="n">
         <v>1</v>
@@ -2707,7 +2707,7 @@
         <v>202.3831279625776</v>
       </c>
       <c r="E24" t="n">
-        <v>664.8629065445498</v>
+        <v>664.8595205702029</v>
       </c>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
@@ -2719,16 +2719,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>103.7470003863144</v>
+        <v>103.739917829396</v>
       </c>
       <c r="C25" t="n">
-        <v>0.1157520313705614</v>
+        <v>0.1157234388565746</v>
       </c>
       <c r="D25" t="n">
-        <v>2629.083631410349</v>
+        <v>2629.015503332287</v>
       </c>
       <c r="E25" t="n">
-        <v>48.09459115614958</v>
+        <v>48.08705907569955</v>
       </c>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
@@ -2740,19 +2740,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>506.4668861829005</v>
+        <v>506.4648152305547</v>
       </c>
       <c r="C26" t="n">
-        <v>6.533361940010685</v>
+        <v>6.534677866651929</v>
       </c>
       <c r="D26" t="n">
-        <v>3432.409273395542</v>
+        <v>3432.389276449648</v>
       </c>
       <c r="E26" t="n">
-        <v>52.60006562292351</v>
+        <v>52.61103622795581</v>
       </c>
       <c r="F26" t="n">
-        <v>6.857191097592072</v>
+        <v>6.857077118075056</v>
       </c>
       <c r="G26" t="n">
         <v>100</v>
@@ -2765,19 +2765,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>196.2040243630003</v>
+        <v>196.1997211714242</v>
       </c>
       <c r="C27" t="n">
-        <v>0.4568542062065439</v>
+        <v>0.4569410232436509</v>
       </c>
       <c r="D27" t="n">
-        <v>2849.97688473291</v>
+        <v>2849.963132340803</v>
       </c>
       <c r="E27" t="n">
-        <v>52.60006562292351</v>
+        <v>52.61103622795581</v>
       </c>
       <c r="F27" t="n">
-        <v>7.089148456549387</v>
+        <v>7.089033675679348</v>
       </c>
       <c r="G27" t="n">
         <v>100</v>
@@ -2790,19 +2790,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>169.8234469438137</v>
+        <v>169.8292977574249</v>
       </c>
       <c r="C28" t="n">
-        <v>0.5257460937863072</v>
+        <v>0.5258759191680854</v>
       </c>
       <c r="D28" t="n">
-        <v>2787.957886353767</v>
+        <v>2787.961905233253</v>
       </c>
       <c r="E28" t="n">
-        <v>15.55874470825737</v>
+        <v>15.56360051548478</v>
       </c>
       <c r="F28" t="n">
-        <v>6.890293815272505</v>
+        <v>6.890193294610582</v>
       </c>
       <c r="G28" t="n">
         <v>100</v>
@@ -2815,19 +2815,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>189.5828302536626</v>
+        <v>189.5800606591043</v>
       </c>
       <c r="C29" t="n">
-        <v>0.4568542062065439</v>
+        <v>0.4569410232436509</v>
       </c>
       <c r="D29" t="n">
-        <v>2835.819686886375</v>
+        <v>2835.808860660512</v>
       </c>
       <c r="E29" t="n">
-        <v>68.15881033118089</v>
+        <v>68.17463674344059</v>
       </c>
       <c r="F29" t="n">
-        <v>7.058770260064882</v>
+        <v>7.058661527877998</v>
       </c>
       <c r="G29" t="n">
         <v>100</v>
@@ -2840,22 +2840,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>116.4104231606578</v>
+        <v>116.4099990908744</v>
       </c>
       <c r="C30" t="n">
-        <v>0.1771120001927692</v>
+        <v>0.1771095710787706</v>
       </c>
       <c r="D30" t="n">
-        <v>2687.931291970532</v>
+        <v>2687.894169868717</v>
       </c>
       <c r="E30" t="n">
-        <v>68.15881033118089</v>
+        <v>68.17463674344059</v>
       </c>
       <c r="F30" t="n">
-        <v>7.134771639985414</v>
+        <v>7.1346825000702</v>
       </c>
       <c r="G30" t="n">
-        <v>99.42425468289507</v>
+        <v>99.42260516539314</v>
       </c>
     </row>
     <row r="31">
@@ -2865,22 +2865,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>103.7465326492249</v>
+        <v>103.7406192113859</v>
       </c>
       <c r="C31" t="n">
-        <v>0.1157501429207094</v>
+        <v>0.1157262700983575</v>
       </c>
       <c r="D31" t="n">
-        <v>2629.08121724766</v>
+        <v>2629.018448742896</v>
       </c>
       <c r="E31" t="n">
-        <v>52.52233922500557</v>
+        <v>52.52961517400394</v>
       </c>
       <c r="F31" t="n">
-        <v>7.17083396082812</v>
+        <v>7.170758824257167</v>
       </c>
       <c r="G31" t="n">
-        <v>97.66918169657187</v>
+        <v>97.66681376655471</v>
       </c>
     </row>
     <row r="32">
@@ -2890,19 +2890,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>69.2348532937246</v>
+        <v>69.20458261301587</v>
       </c>
       <c r="C32" t="n">
-        <v>0.008632234055127953</v>
+        <v>0.008658766391970807</v>
       </c>
       <c r="D32" t="n">
-        <v>2629.08121724766</v>
+        <v>2629.018448742896</v>
       </c>
       <c r="E32" t="n">
-        <v>4.427587735656907</v>
+        <v>4.442415596015991</v>
       </c>
       <c r="F32" t="n">
-        <v>8.353359346231903</v>
+        <v>8.351762426418622</v>
       </c>
       <c r="G32" t="n">
         <v>100</v>
@@ -2915,19 +2915,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>65.44960554700367</v>
+        <v>65.34639758819611</v>
       </c>
       <c r="C33" t="n">
-        <v>0.002408239975395542</v>
+        <v>0.002409142202834204</v>
       </c>
       <c r="D33" t="n">
-        <v>2623.139003798397</v>
+        <v>2622.944337610352</v>
       </c>
       <c r="E33" t="n">
-        <v>4.427587735656907</v>
+        <v>4.442415596015991</v>
       </c>
       <c r="F33" t="n">
-        <v>8.924415434152808</v>
+        <v>8.923667659151375</v>
       </c>
       <c r="G33" t="n">
         <v>100</v>
@@ -2940,16 +2940,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>20.46959046571033</v>
+        <v>20.47565930477509</v>
       </c>
       <c r="C34" t="n">
-        <v>0.002408239975395542</v>
+        <v>0.002409142202834204</v>
       </c>
       <c r="D34" t="n">
-        <v>85.87906918890948</v>
+        <v>85.90446227512093</v>
       </c>
       <c r="E34" t="n">
-        <v>4.427587735656907</v>
+        <v>4.442415596015991</v>
       </c>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
@@ -2961,16 +2961,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>22.48916858260833</v>
+        <v>22.4952424063402</v>
       </c>
       <c r="C35" t="n">
         <v>0.6964</v>
       </c>
       <c r="D35" t="n">
-        <v>94.97543194200857</v>
+        <v>95.00082492182649</v>
       </c>
       <c r="E35" t="n">
-        <v>4.427587735656907</v>
+        <v>4.442415596015991</v>
       </c>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
@@ -3066,16 +3066,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>494.1782480536211</v>
+        <v>494.179978479452</v>
       </c>
       <c r="C40" t="n">
         <v>2</v>
       </c>
       <c r="D40" t="n">
-        <v>3455.402168230925</v>
+        <v>3455.405983020935</v>
       </c>
       <c r="E40" t="n">
-        <v>5.082086317539378</v>
+        <v>5.08210492036079</v>
       </c>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr"/>
@@ -3096,7 +3096,7 @@
         <v>284.8992297912401</v>
       </c>
       <c r="E41" t="n">
-        <v>6.047853993049597</v>
+        <v>6.04812398107466</v>
       </c>
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr"/>
@@ -3108,16 +3108,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>509.1782480536211</v>
+        <v>509.179978479452</v>
       </c>
       <c r="C42" t="n">
-        <v>7.106038228329272</v>
+        <v>7.107483777621006</v>
       </c>
       <c r="D42" t="n">
-        <v>3432.409228549098</v>
+        <v>3432.397774236215</v>
       </c>
       <c r="E42" t="n">
-        <v>6.047853993049597</v>
+        <v>6.04812398107466</v>
       </c>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr"/>
@@ -3219,7 +3219,7 @@
         <v>3687.984095444761</v>
       </c>
       <c r="E2" t="n">
-        <v>5.98695825111365</v>
+        <v>5.986980166191078</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -3262,7 +3262,7 @@
         <v>3030.242194144161</v>
       </c>
       <c r="E3" t="n">
-        <v>5.98695825111365</v>
+        <v>5.986980166191078</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -3305,7 +3305,7 @@
         <v>2555.053440566289</v>
       </c>
       <c r="E4" t="n">
-        <v>5.98695825111365</v>
+        <v>5.986980166191078</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -3348,7 +3348,7 @@
         <v>791.1357141934237</v>
       </c>
       <c r="E5" t="n">
-        <v>5.98695825111365</v>
+        <v>5.986980166191078</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -3391,7 +3391,7 @@
         <v>1348.041621038311</v>
       </c>
       <c r="E6" t="n">
-        <v>2.381347981622457</v>
+        <v>2.381356698473855</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -3406,13 +3406,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.05094889585944186</v>
+        <v>0.0509488958594417</v>
       </c>
       <c r="K6" t="n">
-        <v>0.0976743545348964</v>
+        <v>0.09767435453489641</v>
       </c>
       <c r="L6" t="n">
-        <v>0.6806996788173056</v>
+        <v>0.6806996788173058</v>
       </c>
       <c r="M6" t="n">
         <v>0.002008604154522552</v>
@@ -3637,16 +3637,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.726100846179963</v>
+        <v>1.722892655973396</v>
       </c>
       <c r="C2" t="n">
-        <v>1.892124463963952</v>
+        <v>1.888443494564104</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9122554456929467</v>
+        <v>0.9123347671946515</v>
       </c>
       <c r="E2" t="n">
-        <v>0.2554495743515633</v>
+        <v>0.2560171227650633</v>
       </c>
     </row>
     <row r="3">
@@ -3679,11 +3679,11 @@
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="n">
-        <v>141.7297740678304</v>
+        <v>141.7678780353193</v>
       </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="n">
-        <v>32.72743657288737</v>
+        <v>32.730749765233</v>
       </c>
     </row>
     <row r="6">
@@ -3694,7 +3694,7 @@
       </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="n">
-        <v>6.250606356699567</v>
+        <v>6.250687204917949</v>
       </c>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
@@ -3706,7 +3706,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>43.83313218322452</v>
+        <v>43.84577598142658</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
@@ -3719,12 +3719,12 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>30.63598186457056</v>
+        <v>30.64204296781906</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="n">
-        <v>0.849383756767043</v>
+        <v>0.8493837570849735</v>
       </c>
     </row>
     <row r="9">
@@ -3734,12 +3734,12 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>10.07989705925172</v>
+        <v>10.08403031374901</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="n">
-        <v>0.8331950634645827</v>
+        <v>0.8331841012623282</v>
       </c>
     </row>
     <row r="10">
@@ -3749,12 +3749,12 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3.090943588011622</v>
+        <v>3.092718973831362</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="n">
-        <v>0.8123768807689205</v>
+        <v>0.8123865064032159</v>
       </c>
     </row>
     <row r="11">
@@ -3764,12 +3764,12 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.02630967139061198</v>
+        <v>0.02698372602714468</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="n">
-        <v>0.03310205096162397</v>
+        <v>0.03376959843333751</v>
       </c>
     </row>
     <row r="12">
@@ -3779,13 +3779,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.04027494416470781</v>
+        <v>0.04040982328874207</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0451248653098896</v>
+        <v>0.04527568040362386</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8925222022963274</v>
+        <v>0.8925282387475213</v>
       </c>
       <c r="E12" t="n">
         <v>0.07642926562499497</v>
@@ -3856,10 +3856,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>39054.19368597068</v>
+        <v>39057.98789230866</v>
       </c>
       <c r="C2" t="n">
-        <v>39448.68049087947</v>
+        <v>39452.513022534</v>
       </c>
       <c r="D2" t="n">
         <v>0.99</v>
@@ -3872,10 +3872,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>86739.15040823753</v>
+        <v>86748.5804468299</v>
       </c>
       <c r="C3" t="n">
-        <v>87615.30344266417</v>
+        <v>87624.82873417162</v>
       </c>
       <c r="D3" t="n">
         <v>0.99</v>
@@ -3888,10 +3888,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>34098.32795084122</v>
+        <v>34102.33481245104</v>
       </c>
       <c r="C4" t="n">
-        <v>34442.75550590022</v>
+        <v>34446.80284085964</v>
       </c>
       <c r="D4" t="n">
         <v>0.99</v>
@@ -3904,10 +3904,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>469.9184026140179</v>
+        <v>470.0024617320109</v>
       </c>
       <c r="C5" t="n">
-        <v>474.6650531454727</v>
+        <v>474.7499613454656</v>
       </c>
       <c r="D5" t="n">
         <v>0.99</v>
@@ -3920,10 +3920,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>30112.0934239704</v>
+        <v>30121.36197518511</v>
       </c>
       <c r="C6" t="n">
-        <v>30416.25598380848</v>
+        <v>30425.61815675263</v>
       </c>
       <c r="D6" t="n">
         <v>0.99</v>
@@ -3936,10 +3936,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>32415.92351296917</v>
+        <v>32423.51620161115</v>
       </c>
       <c r="C7" t="n">
-        <v>32743.35708380724</v>
+        <v>32751.02646627389</v>
       </c>
       <c r="D7" t="n">
         <v>0.99</v>
@@ -3952,7 +3952,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>34.15027592951411</v>
+        <v>34.16821477134258</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="n">
@@ -3966,7 +3966,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>105.5851161317199</v>
+        <v>105.5679015361393</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="n">
@@ -3980,7 +3980,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9.310548239422349</v>
+        <v>9.309064940856448</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="n">
@@ -3994,7 +3994,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>17230.86116992772</v>
+        <v>17230.9436301307</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
@@ -4006,7 +4006,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1804.819744223528</v>
+        <v>1805.517796924542</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
@@ -4018,7 +4018,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>11397.25433706595</v>
+        <v>11397.27666920352</v>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
@@ -4030,7 +4030,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>3937.873303094806</v>
+        <v>3937.8877175595</v>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
@@ -4042,7 +4042,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>2844.935229069454</v>
+        <v>2844.945642867781</v>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
@@ -4054,7 +4054,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>10560.50178619366</v>
+        <v>10560.5404425872</v>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
@@ -4066,7 +4066,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>19148.13006258144</v>
+        <v>19148.89159993903</v>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
@@ -4205,7 +4205,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8555461431113754</v>
+        <v>0.8557761561953359</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
@@ -4420,13 +4420,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>461.0756668833079</v>
+        <v>461.2909864720385</v>
       </c>
       <c r="C6" t="n">
         <v>0.1</v>
       </c>
       <c r="D6" t="n">
-        <v>866.1375403055169</v>
+        <v>866.3810690609923</v>
       </c>
       <c r="E6" t="n">
         <v>520.834447815</v>
@@ -4444,13 +4444,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>304.5553219982045</v>
+        <v>307.576896690278</v>
       </c>
       <c r="C7" t="n">
         <v>0.1</v>
       </c>
       <c r="D7" t="n">
-        <v>692.351673428391</v>
+        <v>695.6465006394782</v>
       </c>
       <c r="E7" t="n">
         <v>520.834447815</v>
@@ -4468,13 +4468,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>235.6600680901267</v>
+        <v>237.8447459437911</v>
       </c>
       <c r="C8" t="n">
         <v>0.1</v>
       </c>
       <c r="D8" t="n">
-        <v>617.821152777883</v>
+        <v>620.1677158776918</v>
       </c>
       <c r="E8" t="n">
         <v>520.834447815</v>
@@ -4492,13 +4492,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>234.7375796889179</v>
+        <v>236.9208690043039</v>
       </c>
       <c r="C9" t="n">
         <v>0.1</v>
       </c>
       <c r="D9" t="n">
-        <v>616.8306227305189</v>
+        <v>619.175251163426</v>
       </c>
       <c r="E9" t="n">
         <v>520.834447815</v>
@@ -4516,13 +4516,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>175.4965404794965</v>
+        <v>176.9085614893627</v>
       </c>
       <c r="C10" t="n">
         <v>0.1</v>
       </c>
       <c r="D10" t="n">
-        <v>553.5908819428157</v>
+        <v>555.090199701881</v>
       </c>
       <c r="E10" t="n">
         <v>520.834447815</v>
@@ -4540,13 +4540,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>107.74556011876</v>
+        <v>107.5342305903387</v>
       </c>
       <c r="C11" t="n">
         <v>0.1</v>
       </c>
       <c r="D11" t="n">
-        <v>482.0439784875115</v>
+        <v>481.8218910807291</v>
       </c>
       <c r="E11" t="n">
         <v>520.834447815</v>
@@ -4668,16 +4668,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>503.3804286212774</v>
+        <v>502.7138631041529</v>
       </c>
       <c r="C3" t="n">
-        <v>7.810318999876722</v>
+        <v>8.20689620584929</v>
       </c>
       <c r="D3" t="n">
-        <v>3410.094026863558</v>
+        <v>3403.747540410368</v>
       </c>
       <c r="E3" t="n">
-        <v>62.43039849423881</v>
+        <v>62.28216700784375</v>
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
@@ -4689,16 +4689,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>296.4489307435285</v>
+        <v>299.6313392348626</v>
       </c>
       <c r="C4" t="n">
-        <v>8.166445356289096</v>
+        <v>8.543390227801424</v>
       </c>
       <c r="D4" t="n">
-        <v>2756.184222951915</v>
+        <v>2750.344691995369</v>
       </c>
       <c r="E4" t="n">
-        <v>62.43039849423881</v>
+        <v>62.28216700784375</v>
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
@@ -4710,16 +4710,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>295.6677396921826</v>
+        <v>298.5685260964075</v>
       </c>
       <c r="C5" t="n">
-        <v>8.166445356289096</v>
+        <v>8.543390227801424</v>
       </c>
       <c r="D5" t="n">
-        <v>1320.847779905479</v>
+        <v>1336.863600845978</v>
       </c>
       <c r="E5" t="n">
-        <v>62.43039849423881</v>
+        <v>62.28216700784375</v>
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
@@ -4731,16 +4731,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>165.8766467240479</v>
+        <v>167.3761299186414</v>
       </c>
       <c r="C6" t="n">
-        <v>8.166445356289096</v>
+        <v>8.543390227801424</v>
       </c>
       <c r="D6" t="n">
-        <v>705.2906203132695</v>
+        <v>711.9959988504463</v>
       </c>
       <c r="E6" t="n">
-        <v>62.43039849423881</v>
+        <v>62.28216700784375</v>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
@@ -4752,16 +4752,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>164.1506113914407</v>
+        <v>165.4364732179906</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6862988825314605</v>
+        <v>0.7085508429191272</v>
       </c>
       <c r="D7" t="n">
-        <v>693.5335795798785</v>
+        <v>699.140127990677</v>
       </c>
       <c r="E7" t="n">
-        <v>62.43039849423881</v>
+        <v>62.28216700784375</v>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
@@ -4773,16 +4773,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>176.2537160473841</v>
+        <v>177.3734980006116</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6790708328978508</v>
+        <v>0.7013795895729595</v>
       </c>
       <c r="D8" t="n">
-        <v>2791.981636773169</v>
+        <v>2793.066130866547</v>
       </c>
       <c r="E8" t="n">
-        <v>16.98661766842434</v>
+        <v>17.17182272925718</v>
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
@@ -4794,16 +4794,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>164.150611256379</v>
+        <v>165.4364730802027</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6862988825314605</v>
+        <v>0.7085508429191272</v>
       </c>
       <c r="D9" t="n">
-        <v>2761.916360887112</v>
+        <v>2763.264827326014</v>
       </c>
       <c r="E9" t="n">
-        <v>16.98661766842434</v>
+        <v>17.17182272925718</v>
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
@@ -4815,16 +4815,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>164.1506113914407</v>
+        <v>165.4364732179906</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6862988825314605</v>
+        <v>0.7085508429191272</v>
       </c>
       <c r="D10" t="n">
-        <v>725.3758729625106</v>
+        <v>729.3657489940261</v>
       </c>
       <c r="E10" t="n">
-        <v>79.41701616266315</v>
+        <v>79.45398973710093</v>
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
@@ -4836,16 +4836,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>164.1506113914407</v>
+        <v>165.4364732179906</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6862988825314605</v>
+        <v>0.7085508429191272</v>
       </c>
       <c r="D11" t="n">
-        <v>725.3758729625106</v>
+        <v>729.3657489940261</v>
       </c>
       <c r="E11" t="n">
-        <v>79.4153043920204</v>
+        <v>79.45680512035152</v>
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
@@ -4857,16 +4857,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>62.17269808344565</v>
+        <v>60.51356544415881</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6862988825314605</v>
+        <v>0.7085508429191272</v>
       </c>
       <c r="D12" t="n">
-        <v>260.8392329145504</v>
+        <v>253.8970239507367</v>
       </c>
       <c r="E12" t="n">
-        <v>79.41701616266315</v>
+        <v>79.45398973710093</v>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
@@ -4878,16 +4878,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>62.1722714175562</v>
+        <v>60.51478100818611</v>
       </c>
       <c r="C13" t="n">
         <v>0.6964</v>
       </c>
       <c r="D13" t="n">
-        <v>260.8374474780638</v>
+        <v>253.9021097030409</v>
       </c>
       <c r="E13" t="n">
-        <v>75.63411651878033</v>
+        <v>79.45359078209009</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
@@ -4899,16 +4899,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>62.1722714175562</v>
+        <v>60.51478100818611</v>
       </c>
       <c r="C14" t="n">
         <v>0.6964</v>
       </c>
       <c r="D14" t="n">
-        <v>260.8374474780638</v>
+        <v>253.9021097030409</v>
       </c>
       <c r="E14" t="n">
-        <v>75.63411651878033</v>
+        <v>79.45359078209009</v>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
@@ -4920,16 +4920,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>100.6334259069404</v>
+        <v>99.46101916431883</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1037321368889764</v>
+        <v>0.09948271449676156</v>
       </c>
       <c r="D15" t="n">
-        <v>421.838447762939</v>
+        <v>416.8927068294223</v>
       </c>
       <c r="E15" t="n">
-        <v>67.44136842710797</v>
+        <v>67.73774439195522</v>
       </c>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
@@ -4941,16 +4941,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>66.92450146654176</v>
+        <v>66.72249226661199</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1037323341398012</v>
+        <v>0.09948293249189293</v>
       </c>
       <c r="D16" t="n">
-        <v>280.240683427734</v>
+        <v>279.391107975049</v>
       </c>
       <c r="E16" t="n">
-        <v>67.44058519069836</v>
+        <v>67.73758203495791</v>
       </c>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
@@ -5004,13 +5004,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>83.62596405729346</v>
+        <v>82.99178128143791</v>
       </c>
       <c r="C19" t="n">
         <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>350.1419115078878</v>
+        <v>347.4865882253806</v>
       </c>
       <c r="E19" t="n">
         <v>87.76856420354525</v>
@@ -5025,16 +5025,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>117.0810244119525</v>
+        <v>117.3966749133303</v>
       </c>
       <c r="C20" t="n">
-        <v>0.1809755587335626</v>
+        <v>0.1828317238047364</v>
       </c>
       <c r="D20" t="n">
-        <v>2669.482926084097</v>
+        <v>2661.54671215607</v>
       </c>
       <c r="E20" t="n">
-        <v>18.87163368342483</v>
+        <v>20.42069934091237</v>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
@@ -5046,16 +5046,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>115.494154441937</v>
+        <v>115.8082628204072</v>
       </c>
       <c r="C21" t="n">
-        <v>0.1719267807968844</v>
+        <v>0.1736901376144996</v>
       </c>
       <c r="D21" t="n">
-        <v>484.6885048316602</v>
+        <v>486.0205089181384</v>
       </c>
       <c r="E21" t="n">
-        <v>18.87163368342483</v>
+        <v>20.42069934091237</v>
       </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
@@ -5067,13 +5067,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.44870601858824</v>
+        <v>96.3644007243448</v>
       </c>
       <c r="C22" t="n">
         <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>408.017732099829</v>
+        <v>403.4777458328317</v>
       </c>
       <c r="E22" t="n">
         <v>696.7367436759</v>
@@ -5109,7 +5109,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>61.14072319790125</v>
+        <v>61.06083461417908</v>
       </c>
       <c r="C24" t="n">
         <v>1</v>
@@ -5130,16 +5130,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>102.0827246861378</v>
+        <v>100.89990225668</v>
       </c>
       <c r="C25" t="n">
-        <v>0.1091917230410278</v>
+        <v>0.1047186468386964</v>
       </c>
       <c r="D25" t="n">
-        <v>2600.204923831205</v>
+        <v>2585.614773564775</v>
       </c>
       <c r="E25" t="n">
-        <v>48.56978507165809</v>
+        <v>47.31704291589996</v>
       </c>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
@@ -5151,19 +5151,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>500.5764459918072</v>
+        <v>500.0681233198154</v>
       </c>
       <c r="C26" t="n">
-        <v>7.228595216651011</v>
+        <v>7.658238556082346</v>
       </c>
       <c r="D26" t="n">
-        <v>3410.094026863558</v>
+        <v>3403.747540410368</v>
       </c>
       <c r="E26" t="n">
-        <v>58.64835955099399</v>
+        <v>62.28216700784375</v>
       </c>
       <c r="F26" t="n">
-        <v>6.784272829806952</v>
+        <v>6.7509883287928</v>
       </c>
       <c r="G26" t="n">
         <v>100</v>
@@ -5176,19 +5176,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>189.9071977785295</v>
+        <v>187.5683929905497</v>
       </c>
       <c r="C27" t="n">
-        <v>0.49839493364059</v>
+        <v>0.5198151508034587</v>
       </c>
       <c r="D27" t="n">
-        <v>2834.172813705662</v>
+        <v>2827.844764804853</v>
       </c>
       <c r="E27" t="n">
-        <v>58.64835955099399</v>
+        <v>62.28216700784375</v>
       </c>
       <c r="F27" t="n">
-        <v>7.016177082914772</v>
+        <v>6.983646252636107</v>
       </c>
       <c r="G27" t="n">
         <v>100</v>
@@ -5201,19 +5201,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>173.2802263618744</v>
+        <v>174.4558110454578</v>
       </c>
       <c r="C28" t="n">
-        <v>0.5805118813551521</v>
+        <v>0.603732502056718</v>
       </c>
       <c r="D28" t="n">
-        <v>2791.981636773169</v>
+        <v>2793.066130866547</v>
       </c>
       <c r="E28" t="n">
-        <v>16.98661766842434</v>
+        <v>17.17182272925718</v>
       </c>
       <c r="F28" t="n">
-        <v>6.855421654931915</v>
+        <v>6.840500738209019</v>
       </c>
       <c r="G28" t="n">
         <v>100</v>
@@ -5226,19 +5226,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>185.5506994303001</v>
+        <v>184.1426269125868</v>
       </c>
       <c r="C29" t="n">
-        <v>0.49839493364059</v>
+        <v>0.5198151508034587</v>
       </c>
       <c r="D29" t="n">
-        <v>2824.697232197203</v>
+        <v>2820.328307308755</v>
       </c>
       <c r="E29" t="n">
-        <v>75.63497721941832</v>
+        <v>79.45398973710093</v>
       </c>
       <c r="F29" t="n">
-        <v>6.995617022919079</v>
+        <v>6.967270592598691</v>
       </c>
       <c r="G29" t="n">
         <v>100</v>
@@ -5251,22 +5251,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>117.0806717735159</v>
+        <v>117.3950760087372</v>
       </c>
       <c r="C30" t="n">
-        <v>0.1809854968865649</v>
+        <v>0.1828262393353336</v>
       </c>
       <c r="D30" t="n">
-        <v>2669.481520833594</v>
+        <v>2661.540530777678</v>
       </c>
       <c r="E30" t="n">
-        <v>75.63497721941832</v>
+        <v>79.45398973710093</v>
       </c>
       <c r="F30" t="n">
-        <v>7.077791302827424</v>
+        <v>7.05296128586782</v>
       </c>
       <c r="G30" t="n">
-        <v>98.54430096595966</v>
+        <v>98.16336079047745</v>
       </c>
     </row>
     <row r="31">
@@ -5276,22 +5276,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>102.0823380555696</v>
+        <v>100.898773722846</v>
       </c>
       <c r="C31" t="n">
-        <v>0.109190235524999</v>
+        <v>0.1047144526352144</v>
       </c>
       <c r="D31" t="n">
-        <v>2600.203292741731</v>
+        <v>2585.61044965239</v>
       </c>
       <c r="E31" t="n">
-        <v>56.76339386396843</v>
+        <v>59.03328826104567</v>
       </c>
       <c r="F31" t="n">
-        <v>7.119752436994582</v>
+        <v>7.099090588521995</v>
       </c>
       <c r="G31" t="n">
-        <v>96.50626295596528</v>
+        <v>95.94613084622483</v>
       </c>
     </row>
     <row r="32">
@@ -5301,22 +5301,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>54.98360365590332</v>
+        <v>61.85558511405213</v>
       </c>
       <c r="C32" t="n">
-        <v>0.01522886574444464</v>
+        <v>0.02172324151614642</v>
       </c>
       <c r="D32" t="n">
-        <v>2600.203292741731</v>
+        <v>2585.61044965239</v>
       </c>
       <c r="E32" t="n">
-        <v>8.193531328081981</v>
+        <v>11.71600874713219</v>
       </c>
       <c r="F32" t="n">
-        <v>8.005980528206704</v>
+        <v>7.799684026588347</v>
       </c>
       <c r="G32" t="n">
-        <v>100</v>
+        <v>98.87593209299145</v>
       </c>
     </row>
     <row r="33">
@@ -5326,22 +5326,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>28.78402477330224</v>
+        <v>23.23267916391319</v>
       </c>
       <c r="C33" t="n">
-        <v>0.002635797675357144</v>
+        <v>0.002850909065580635</v>
       </c>
       <c r="D33" t="n">
-        <v>2553.95456809033</v>
+        <v>2496.418091007039</v>
       </c>
       <c r="E33" t="n">
-        <v>8.193531328081981</v>
+        <v>11.71600874713219</v>
       </c>
       <c r="F33" t="n">
-        <v>8.666514408489162</v>
+        <v>8.436560000596341</v>
       </c>
       <c r="G33" t="n">
-        <v>100</v>
+        <v>98.08312556433417</v>
       </c>
     </row>
     <row r="34">
@@ -5351,16 +5351,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>21.94074868309548</v>
+        <v>23.23267916391319</v>
       </c>
       <c r="C34" t="n">
-        <v>0.002635797675357144</v>
+        <v>0.002850909065580635</v>
       </c>
       <c r="D34" t="n">
-        <v>92.03396990692966</v>
+        <v>97.43800233625959</v>
       </c>
       <c r="E34" t="n">
-        <v>8.193531328081981</v>
+        <v>11.71600874713219</v>
       </c>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
@@ -5372,16 +5372,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>23.96149464967976</v>
+        <v>25.25438456767574</v>
       </c>
       <c r="C35" t="n">
         <v>0.6964</v>
       </c>
       <c r="D35" t="n">
-        <v>101.1302913518576</v>
+        <v>106.5342518682071</v>
       </c>
       <c r="E35" t="n">
-        <v>8.193531328081981</v>
+        <v>11.71600874713219</v>
       </c>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
@@ -5477,16 +5477,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>494.1782480536211</v>
+        <v>494.179978479452</v>
       </c>
       <c r="C40" t="n">
         <v>2</v>
       </c>
       <c r="D40" t="n">
-        <v>3455.402168230925</v>
+        <v>3455.405983020935</v>
       </c>
       <c r="E40" t="n">
-        <v>5.082086317539378</v>
+        <v>5.08210492036079</v>
       </c>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr"/>
@@ -5519,16 +5519,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>509.1782480536211</v>
+        <v>509.179978479452</v>
       </c>
       <c r="C42" t="n">
-        <v>7.106038228329272</v>
+        <v>7.107483777621006</v>
       </c>
       <c r="D42" t="n">
-        <v>3432.409228549098</v>
+        <v>3432.397774236215</v>
       </c>
       <c r="E42" t="n">
-        <v>6.047853993049597</v>
+        <v>6.04812398107466</v>
       </c>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr"/>
